--- a/data/sr-extract.xlsx
+++ b/data/sr-extract.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Request List" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'Request List'!$A$1:$P$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'Request List'!$A$1:$P$241</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5342" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="681">
   <si>
     <t>Id</t>
   </si>
@@ -116,255 +116,255 @@
     <t>EMR App - Beacon</t>
   </si>
   <si>
+    <t>348276</t>
+  </si>
+  <si>
+    <t>Staff members to be removed from EMR Social Work Templates and Snapboard</t>
+  </si>
+  <si>
+    <t>Jelic, Jenny</t>
+  </si>
+  <si>
+    <t>Hampton, Kate</t>
+  </si>
+  <si>
+    <t>EMR App - Cadence, Referrals &amp; VINAH</t>
+  </si>
+  <si>
+    <t>348298</t>
+  </si>
+  <si>
+    <t>New Visit Type and Block required</t>
+  </si>
+  <si>
+    <t>Medium - Severity 3</t>
+  </si>
+  <si>
+    <t>Lamont, Christie</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Waiting for Customer</t>
+  </si>
+  <si>
+    <t>System or Function unavailable</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>348314</t>
+  </si>
+  <si>
+    <t>Led discharge order for simple appendicitis</t>
+  </si>
+  <si>
+    <t>Contatore, Chanelle</t>
+  </si>
+  <si>
+    <t>Gehrz, Casie</t>
+  </si>
+  <si>
+    <t>EMR Stage II Improvement</t>
+  </si>
+  <si>
+    <t>348318</t>
+  </si>
+  <si>
+    <t>New LOS and specialty column</t>
+  </si>
+  <si>
+    <t>Bennett, Heather</t>
+  </si>
+  <si>
+    <t>Dal Santo, Laura</t>
+  </si>
+  <si>
+    <t>EMR App - HIM</t>
+  </si>
+  <si>
+    <t>Workaround Available</t>
+  </si>
+  <si>
+    <t>348320</t>
+  </si>
+  <si>
+    <t>Add EMR Providers 26/06</t>
+  </si>
+  <si>
+    <t>Richards, Shaun</t>
+  </si>
+  <si>
+    <t>348340</t>
+  </si>
+  <si>
+    <t>Some nursing staff can sign for EMLA, but others cannot</t>
+  </si>
+  <si>
+    <t>Greaves, Corinne</t>
+  </si>
+  <si>
+    <t>Swamy, Pavan</t>
+  </si>
+  <si>
+    <t>EMR App - Orders</t>
+  </si>
+  <si>
+    <t>348344</t>
+  </si>
+  <si>
+    <t>NIV therapy plan and orders</t>
+  </si>
+  <si>
+    <t>Jones, Sueellan</t>
+  </si>
+  <si>
+    <t>348354</t>
+  </si>
+  <si>
+    <t>Folder update for Compliance reports</t>
+  </si>
+  <si>
+    <t>348836</t>
+  </si>
+  <si>
+    <t>Changes to process instructions and qusetions for ADD ON orders</t>
+  </si>
+  <si>
+    <t>Kelly, Nigel</t>
+  </si>
+  <si>
+    <t>Hader, George</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>348864</t>
+  </si>
+  <si>
+    <t>Clinical trial closeout - Vertex VX15-770-123 HREC 36169</t>
+  </si>
+  <si>
+    <t>Denehy, April</t>
+  </si>
+  <si>
+    <t>Plover, Christine</t>
+  </si>
+  <si>
+    <t>EMR App - Willow</t>
+  </si>
+  <si>
+    <t>349168</t>
+  </si>
+  <si>
+    <t>Security Setup Required for Web Executive Dashboard Testing in POC</t>
+  </si>
+  <si>
+    <t>Stephens, David</t>
+  </si>
+  <si>
+    <t>349216</t>
+  </si>
+  <si>
+    <t>Report required to be built for colorectal surgical site surviellance</t>
+  </si>
+  <si>
+    <t>Johnson, Kareena</t>
+  </si>
+  <si>
+    <t>349242</t>
+  </si>
+  <si>
+    <t>Pls add to N2K &amp; BMT imprest AMPH10 Amphotericin Liposomal</t>
+  </si>
+  <si>
+    <t>Rowe, Kim</t>
+  </si>
+  <si>
+    <t>Ong, Jeffrey</t>
+  </si>
+  <si>
+    <t>349246</t>
+  </si>
+  <si>
+    <t>LDA - trache forms</t>
+  </si>
+  <si>
+    <t>349732</t>
+  </si>
+  <si>
+    <t>Erydel treatment procedure workflow</t>
+  </si>
+  <si>
+    <t>Segal, Ahuva</t>
+  </si>
+  <si>
+    <t>Tan, Adrian</t>
+  </si>
+  <si>
+    <t>EMR App - ClinDoc</t>
+  </si>
+  <si>
+    <t>Logged</t>
+  </si>
+  <si>
+    <t>349738</t>
+  </si>
+  <si>
+    <t>Need to update two AMDAC panels</t>
+  </si>
+  <si>
+    <t>Blanche, Carly</t>
+  </si>
+  <si>
+    <t>Tucker, Stephen</t>
+  </si>
+  <si>
+    <t>349903</t>
+  </si>
+  <si>
+    <t>Please remove Brazil Nut from the orderable list</t>
+  </si>
+  <si>
+    <t>Collins, Sonya</t>
+  </si>
+  <si>
+    <t>349922</t>
+  </si>
+  <si>
+    <t>How to see old therapy plans</t>
+  </si>
+  <si>
+    <t>349936</t>
+  </si>
+  <si>
+    <t>students - EMR access</t>
+  </si>
+  <si>
+    <t>Puljic, Marina</t>
+  </si>
+  <si>
+    <t>349969</t>
+  </si>
+  <si>
+    <t>Test Results text in My RCH Portal</t>
+  </si>
+  <si>
+    <t>Glogolia, Melissa</t>
+  </si>
+  <si>
+    <t>Campbell, Janice</t>
+  </si>
+  <si>
+    <t>EMR App - Ambulatory - MyRCHPortal</t>
+  </si>
+  <si>
     <t>Resolved</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>348276</t>
-  </si>
-  <si>
-    <t>Staff members to be removed from EMR Social Work Templates and Snapboard</t>
-  </si>
-  <si>
-    <t>Jelic, Jenny</t>
-  </si>
-  <si>
-    <t>Hampton, Kate</t>
-  </si>
-  <si>
-    <t>EMR App - Cadence, Referrals &amp; VINAH</t>
-  </si>
-  <si>
-    <t>348298</t>
-  </si>
-  <si>
-    <t>New Visit Type and Block required</t>
-  </si>
-  <si>
-    <t>Medium - Severity 3</t>
-  </si>
-  <si>
-    <t>Lamont, Christie</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>Waiting for Customer</t>
-  </si>
-  <si>
-    <t>System or Function unavailable</t>
-  </si>
-  <si>
-    <t>348314</t>
-  </si>
-  <si>
-    <t>Led discharge order for simple appendicitis</t>
-  </si>
-  <si>
-    <t>Contatore, Chanelle</t>
-  </si>
-  <si>
-    <t>Gehrz, Casie</t>
-  </si>
-  <si>
-    <t>EMR Stage II Improvement</t>
-  </si>
-  <si>
-    <t>348318</t>
-  </si>
-  <si>
-    <t>New LOS and specialty column</t>
-  </si>
-  <si>
-    <t>Bennett, Heather</t>
-  </si>
-  <si>
-    <t>Dal Santo, Laura</t>
-  </si>
-  <si>
-    <t>EMR App - HIM</t>
-  </si>
-  <si>
-    <t>Workaround Available</t>
-  </si>
-  <si>
-    <t>348320</t>
-  </si>
-  <si>
-    <t>Add EMR Providers 26/06</t>
-  </si>
-  <si>
-    <t>Richards, Shaun</t>
-  </si>
-  <si>
-    <t>348340</t>
-  </si>
-  <si>
-    <t>Some nursing staff can sign for EMLA, but others cannot</t>
-  </si>
-  <si>
-    <t>Greaves, Corinne</t>
-  </si>
-  <si>
-    <t>Swamy, Pavan</t>
-  </si>
-  <si>
-    <t>EMR App - Orders</t>
-  </si>
-  <si>
-    <t>348344</t>
-  </si>
-  <si>
-    <t>NIV therapy plan and orders</t>
-  </si>
-  <si>
-    <t>Jones, Sueellan</t>
-  </si>
-  <si>
-    <t>348354</t>
-  </si>
-  <si>
-    <t>Folder update for Compliance reports</t>
-  </si>
-  <si>
-    <t>348836</t>
-  </si>
-  <si>
-    <t>Changes to process instructions and qusetions for ADD ON orders</t>
-  </si>
-  <si>
-    <t>Kelly, Nigel</t>
-  </si>
-  <si>
-    <t>Hader, George</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>348864</t>
-  </si>
-  <si>
-    <t>Clinical trial closeout - Vertex VX15-770-123 HREC 36169</t>
-  </si>
-  <si>
-    <t>Denehy, April</t>
-  </si>
-  <si>
-    <t>Plover, Christine</t>
-  </si>
-  <si>
-    <t>EMR App - Willow</t>
-  </si>
-  <si>
-    <t>349168</t>
-  </si>
-  <si>
-    <t>Security Setup Required for Web Executive Dashboard Testing in POC</t>
-  </si>
-  <si>
-    <t>Stephens, David</t>
-  </si>
-  <si>
-    <t>349216</t>
-  </si>
-  <si>
-    <t>Report required to be built for colorectal surgical site surviellance</t>
-  </si>
-  <si>
-    <t>Johnson, Kareena</t>
-  </si>
-  <si>
-    <t>349242</t>
-  </si>
-  <si>
-    <t>Pls add to N2K &amp; BMT imprest AMPH10 Amphotericin Liposomal</t>
-  </si>
-  <si>
-    <t>Rowe, Kim</t>
-  </si>
-  <si>
-    <t>Ong, Jeffrey</t>
-  </si>
-  <si>
-    <t>349246</t>
-  </si>
-  <si>
-    <t>LDA - trache forms</t>
-  </si>
-  <si>
-    <t>349732</t>
-  </si>
-  <si>
-    <t>Erydel treatment procedure workflow</t>
-  </si>
-  <si>
-    <t>Segal, Ahuva</t>
-  </si>
-  <si>
-    <t>Tan, Adrian</t>
-  </si>
-  <si>
-    <t>EMR App - ClinDoc</t>
-  </si>
-  <si>
-    <t>Logged</t>
-  </si>
-  <si>
-    <t>349738</t>
-  </si>
-  <si>
-    <t>Need to update two AMDAC panels</t>
-  </si>
-  <si>
-    <t>Blanche, Carly</t>
-  </si>
-  <si>
-    <t>Tucker, Stephen</t>
-  </si>
-  <si>
-    <t>349903</t>
-  </si>
-  <si>
-    <t>Please remove Brazil Nut from the orderable list</t>
-  </si>
-  <si>
-    <t>Collins, Sonya</t>
-  </si>
-  <si>
-    <t>349922</t>
-  </si>
-  <si>
-    <t>How to see old therapy plans</t>
-  </si>
-  <si>
-    <t>349936</t>
-  </si>
-  <si>
-    <t>students - EMR access</t>
-  </si>
-  <si>
-    <t>Puljic, Marina</t>
-  </si>
-  <si>
-    <t>349969</t>
-  </si>
-  <si>
-    <t>Test Results text in My RCH Portal</t>
-  </si>
-  <si>
-    <t>Glogolia, Melissa</t>
-  </si>
-  <si>
-    <t>Campbell, Janice</t>
-  </si>
-  <si>
-    <t>EMR App - Ambulatory - MyRCHPortal</t>
-  </si>
-  <si>
     <t>350017</t>
   </si>
   <si>
@@ -1142,7 +1142,7 @@
     <t>359729</t>
   </si>
   <si>
-    <t>Change to the emergency theatre request</t>
+    <t>(User OOO) Change to the emergency theatre request</t>
   </si>
   <si>
     <t>Lane, Geoff</t>
@@ -1202,6 +1202,15 @@
     <t>Villena-Marnich, Veronica</t>
   </si>
   <si>
+    <t>361107</t>
+  </si>
+  <si>
+    <t>Report on PIV &amp; CVAD insertion and management documentation</t>
+  </si>
+  <si>
+    <t>Scott, Sue</t>
+  </si>
+  <si>
     <t>361261</t>
   </si>
   <si>
@@ -1628,7 +1637,7 @@
     <t>367769</t>
   </si>
   <si>
-    <t>Apheresis workflow review</t>
+    <t>Build review - Apheresis workflow review</t>
   </si>
   <si>
     <t>367815</t>
@@ -1880,6 +1889,12 @@
     <t>Sullivan, Michael</t>
   </si>
   <si>
+    <t>370669</t>
+  </si>
+  <si>
+    <t>Pop up appears when trying to sign future appointments in treatment plans</t>
+  </si>
+  <si>
     <t>370709</t>
   </si>
   <si>
@@ -1907,6 +1922,21 @@
     <t>Darmanin, Daniel</t>
   </si>
   <si>
+    <t>371281</t>
+  </si>
+  <si>
+    <t>DOXORUBICIN BEACON EURONET DOXORUBICIN</t>
+  </si>
+  <si>
+    <t>371285</t>
+  </si>
+  <si>
+    <t>Cadence Team - Update fleet resources on Snapboard</t>
+  </si>
+  <si>
+    <t>Bui, An</t>
+  </si>
+  <si>
     <t>371301</t>
   </si>
   <si>
@@ -1922,6 +1952,15 @@
     <t>EMR BEACON PROTOCOL PROVIDER COMMUNICATION ACNS0334 CONSOLIDATION PBSC RESCUE</t>
   </si>
   <si>
+    <t>371524</t>
+  </si>
+  <si>
+    <t>Clinicians are ordering the wrong test</t>
+  </si>
+  <si>
+    <t>Choo, Sharon</t>
+  </si>
+  <si>
     <t>371609</t>
   </si>
   <si>
@@ -1932,6 +1971,93 @@
   </si>
   <si>
     <t>GP and clinic need to be added to EMR and IBA</t>
+  </si>
+  <si>
+    <t>372045</t>
+  </si>
+  <si>
+    <t>EMR access</t>
+  </si>
+  <si>
+    <t>372085</t>
+  </si>
+  <si>
+    <t>order for oral vit B12 has ridiculous dose alert</t>
+  </si>
+  <si>
+    <t>Bant, Stewart</t>
+  </si>
+  <si>
+    <t>372103</t>
+  </si>
+  <si>
+    <t>deaths in Emergency Report</t>
+  </si>
+  <si>
+    <t>Tran, Phuong</t>
+  </si>
+  <si>
+    <t>372115</t>
+  </si>
+  <si>
+    <t>[Infusions] Infusions falling off flowsheets</t>
+  </si>
+  <si>
+    <t>372135</t>
+  </si>
+  <si>
+    <t>Build Review - review Admin Guidelines for any TGA name change corrections.</t>
+  </si>
+  <si>
+    <t>372250</t>
+  </si>
+  <si>
+    <t>Apparent Clarity ETL failure</t>
+  </si>
+  <si>
+    <t>Stratford, Tony</t>
+  </si>
+  <si>
+    <t>372333</t>
+  </si>
+  <si>
+    <t>Diet order change</t>
+  </si>
+  <si>
+    <t>372461</t>
+  </si>
+  <si>
+    <t>Sputum cytology test code scyg does not exist in Medipath</t>
+  </si>
+  <si>
+    <t>Christiansen, Bronwyn</t>
+  </si>
+  <si>
+    <t>372477</t>
+  </si>
+  <si>
+    <t>SmartPhrase request for Vismodegib Toxicity</t>
+  </si>
+  <si>
+    <t>372517</t>
+  </si>
+  <si>
+    <t>Build Review - review chemo ERX naming extensions for injectables/infusions</t>
+  </si>
+  <si>
+    <t>372527</t>
+  </si>
+  <si>
+    <t>Remove My RCH Portal sign-up access from Hayley Sparkes EMR profile</t>
+  </si>
+  <si>
+    <t>372533</t>
+  </si>
+  <si>
+    <t>Request for appointment location of Genetics level 4</t>
+  </si>
+  <si>
+    <t>Martis-Geor, Liliana</t>
   </si>
 </sst>
 </file>
@@ -2171,32 +2297,34 @@
         <v>24</v>
       </c>
       <c r="L3" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M3" t="n" s="7">
         <v>42912.36620231481</v>
       </c>
-      <c r="N3"/>
+      <c r="N3" t="n" s="7">
+        <v>42944.65678221065</v>
+      </c>
       <c r="O3" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P3" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s" s="6">
         <v>20</v>
@@ -2206,10 +2334,10 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s" s="6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s" s="6">
         <v>24</v>
@@ -2232,59 +2360,59 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s" s="6">
         <v>40</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>42</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G5" t="s" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L5" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5" t="n" s="7">
         <v>42912.44735582176</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s" s="6">
         <v>47</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>48</v>
       </c>
       <c r="C6" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s" s="6">
         <v>20</v>
@@ -2294,10 +2422,10 @@
       </c>
       <c r="H6"/>
       <c r="I6" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s" s="6">
         <v>50</v>
-      </c>
-      <c r="J6" t="s" s="6">
-        <v>51</v>
       </c>
       <c r="K6" t="s" s="6">
         <v>24</v>
@@ -2320,17 +2448,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="6">
         <v>52</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>53</v>
       </c>
       <c r="C7" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s" s="6">
         <v>20</v>
@@ -2340,10 +2468,10 @@
       </c>
       <c r="H7"/>
       <c r="I7" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s" s="6">
         <v>55</v>
-      </c>
-      <c r="J7" t="s" s="6">
-        <v>56</v>
       </c>
       <c r="K7" t="s" s="6">
         <v>24</v>
@@ -2358,7 +2486,7 @@
         <v>42917.695111458335</v>
       </c>
       <c r="O7" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s" s="6">
         <v>27</v>
@@ -2366,17 +2494,17 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s" s="6">
         <v>58</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>59</v>
       </c>
       <c r="C8" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s" s="6">
         <v>20</v>
@@ -2412,17 +2540,17 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s" s="6">
         <v>61</v>
       </c>
-      <c r="B9" t="s" s="6">
-        <v>62</v>
-      </c>
       <c r="C9" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s" s="6">
         <v>20</v>
@@ -2432,10 +2560,10 @@
       </c>
       <c r="H9"/>
       <c r="I9" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s" s="6">
         <v>64</v>
-      </c>
-      <c r="J9" t="s" s="6">
-        <v>65</v>
       </c>
       <c r="K9" t="s" s="6">
         <v>24</v>
@@ -2450,7 +2578,7 @@
         <v>42943.72280993056</v>
       </c>
       <c r="O9" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" t="s" s="6">
         <v>27</v>
@@ -2458,17 +2586,17 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s" s="6">
         <v>66</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>67</v>
       </c>
       <c r="C10" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s" s="6">
         <v>20</v>
@@ -2478,10 +2606,10 @@
       </c>
       <c r="H10"/>
       <c r="I10" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s" s="6">
         <v>50</v>
-      </c>
-      <c r="J10" t="s" s="6">
-        <v>51</v>
       </c>
       <c r="K10" t="s" s="6">
         <v>24</v>
@@ -2504,17 +2632,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="6">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s" s="6">
         <v>69</v>
-      </c>
-      <c r="B11" t="s" s="6">
-        <v>70</v>
       </c>
       <c r="C11" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s" s="6">
         <v>20</v>
@@ -2524,10 +2652,10 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s" s="6">
         <v>55</v>
-      </c>
-      <c r="J11" t="s" s="6">
-        <v>56</v>
       </c>
       <c r="K11" t="s" s="6">
         <v>24</v>
@@ -2550,17 +2678,17 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="6">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s" s="6">
         <v>71</v>
       </c>
-      <c r="B12" t="s" s="6">
-        <v>72</v>
-      </c>
       <c r="C12" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="6">
         <v>20</v>
@@ -2570,13 +2698,13 @@
       </c>
       <c r="H12"/>
       <c r="I12" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s" s="6">
         <v>74</v>
-      </c>
-      <c r="J12" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="K12" t="s" s="6">
-        <v>75</v>
       </c>
       <c r="L12" t="s" s="6">
         <v>25</v>
@@ -2588,7 +2716,7 @@
         <v>42922.56067435185</v>
       </c>
       <c r="O12" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P12" t="s" s="6">
         <v>27</v>
@@ -2596,17 +2724,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="6">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s" s="6">
         <v>76</v>
-      </c>
-      <c r="B13" t="s" s="6">
-        <v>77</v>
       </c>
       <c r="C13" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="6">
         <v>20</v>
@@ -2616,13 +2744,13 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="J13" t="s" s="6">
-        <v>80</v>
-      </c>
       <c r="K13" t="s" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s" s="6">
         <v>25</v>
@@ -2642,17 +2770,17 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="6">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s" s="6">
         <v>81</v>
       </c>
-      <c r="B14" t="s" s="6">
-        <v>82</v>
-      </c>
       <c r="C14" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s" s="6">
         <v>20</v>
@@ -2680,7 +2808,7 @@
         <v>42921.44151928241</v>
       </c>
       <c r="O14" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s" s="6">
         <v>27</v>
@@ -2688,17 +2816,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="6">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s" s="6">
         <v>84</v>
-      </c>
-      <c r="B15" t="s" s="6">
-        <v>85</v>
       </c>
       <c r="C15" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s" s="6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s" s="6">
         <v>20</v>
@@ -2708,13 +2836,13 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="J15" t="s" s="6">
-        <v>51</v>
-      </c>
       <c r="K15" t="s" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" t="s" s="6">
         <v>25</v>
@@ -2734,17 +2862,17 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s" s="6">
         <v>87</v>
-      </c>
-      <c r="B16" t="s" s="6">
-        <v>88</v>
       </c>
       <c r="C16" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="6">
         <v>20</v>
@@ -2754,10 +2882,10 @@
       </c>
       <c r="H16"/>
       <c r="I16" t="s" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="6">
         <v>24</v>
@@ -2780,17 +2908,17 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s" s="6">
         <v>91</v>
-      </c>
-      <c r="B17" t="s" s="6">
-        <v>92</v>
       </c>
       <c r="C17" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s" s="6">
         <v>20</v>
@@ -2800,10 +2928,10 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s" s="6">
         <v>50</v>
-      </c>
-      <c r="J17" t="s" s="6">
-        <v>51</v>
       </c>
       <c r="K17" t="s" s="6">
         <v>24</v>
@@ -2826,17 +2954,17 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="6">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s" s="6">
         <v>93</v>
       </c>
-      <c r="B18" t="s" s="6">
-        <v>94</v>
-      </c>
       <c r="C18" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s" s="6">
         <v>20</v>
@@ -2846,41 +2974,41 @@
       </c>
       <c r="H18"/>
       <c r="I18" t="s" s="6">
+        <v>95</v>
+      </c>
+      <c r="J18" t="s" s="6">
         <v>96</v>
       </c>
-      <c r="J18" t="s" s="6">
+      <c r="K18" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s" s="6">
         <v>97</v>
-      </c>
-      <c r="K18" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="L18" t="s" s="6">
-        <v>98</v>
       </c>
       <c r="M18" t="n" s="7">
         <v>42914.57703216435</v>
       </c>
       <c r="N18"/>
       <c r="O18" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="6">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s" s="6">
         <v>99</v>
-      </c>
-      <c r="B19" t="s" s="6">
-        <v>100</v>
       </c>
       <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s" s="6">
         <v>20</v>
@@ -2890,10 +3018,10 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s" s="6">
         <v>24</v>
@@ -2908,7 +3036,7 @@
         <v>42943.3789412037</v>
       </c>
       <c r="O19" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P19" t="s" s="6">
         <v>27</v>
@@ -2916,17 +3044,17 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="6">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s" s="6">
         <v>103</v>
-      </c>
-      <c r="B20" t="s" s="6">
-        <v>104</v>
       </c>
       <c r="C20" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s" s="6">
         <v>20</v>
@@ -2936,10 +3064,10 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s" s="6">
         <v>24</v>
@@ -2962,17 +3090,17 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="6">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s" s="6">
         <v>106</v>
-      </c>
-      <c r="B21" t="s" s="6">
-        <v>107</v>
       </c>
       <c r="C21" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s" s="6">
         <v>20</v>
@@ -2982,10 +3110,10 @@
       </c>
       <c r="H21"/>
       <c r="I21" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s" s="6">
         <v>64</v>
-      </c>
-      <c r="J21" t="s" s="6">
-        <v>65</v>
       </c>
       <c r="K21" t="s" s="6">
         <v>24</v>
@@ -3000,7 +3128,7 @@
         <v>42936.64632049768</v>
       </c>
       <c r="O21" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" t="s" s="6">
         <v>27</v>
@@ -3008,17 +3136,17 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="6">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s" s="6">
         <v>108</v>
-      </c>
-      <c r="B22" t="s" s="6">
-        <v>109</v>
       </c>
       <c r="C22" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s" s="6">
         <v>20</v>
@@ -3031,7 +3159,7 @@
         <v>22</v>
       </c>
       <c r="J22" t="s" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s" s="6">
         <v>24</v>
@@ -3054,17 +3182,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="6">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s" s="6">
         <v>111</v>
-      </c>
-      <c r="B23" t="s" s="6">
-        <v>112</v>
       </c>
       <c r="C23" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s" s="6">
         <v>20</v>
@@ -3074,16 +3202,16 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s" s="6">
+        <v>113</v>
+      </c>
+      <c r="J23" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="J23" t="s" s="6">
+      <c r="K23" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s" s="6">
         <v>115</v>
-      </c>
-      <c r="K23" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="L23" t="s" s="6">
-        <v>33</v>
       </c>
       <c r="M23" t="n" s="7">
         <v>42914.39659642361</v>
@@ -3093,7 +3221,7 @@
         <v>26</v>
       </c>
       <c r="P23" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -3108,7 +3236,7 @@
       </c>
       <c r="D24"/>
       <c r="E24" t="s" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s" s="6">
         <v>20</v>
@@ -3118,10 +3246,10 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s" s="6">
         <v>79</v>
-      </c>
-      <c r="J24" t="s" s="6">
-        <v>80</v>
       </c>
       <c r="K24" t="s" s="6">
         <v>24</v>
@@ -3136,7 +3264,7 @@
         <v>42916.55607961806</v>
       </c>
       <c r="O24" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P24" t="s" s="6">
         <v>27</v>
@@ -3160,12 +3288,12 @@
         <v>20</v>
       </c>
       <c r="G25" t="s" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="6">
         <v>24</v>
@@ -3181,7 +3309,7 @@
         <v>26</v>
       </c>
       <c r="P25" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -3209,7 +3337,7 @@
         <v>124</v>
       </c>
       <c r="J26" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="6">
         <v>24</v>
@@ -3255,7 +3383,7 @@
         <v>128</v>
       </c>
       <c r="J27" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s" s="6">
         <v>24</v>
@@ -3298,10 +3426,10 @@
       </c>
       <c r="H28"/>
       <c r="I28" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s" s="6">
         <v>24</v>
@@ -3344,10 +3472,10 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s" s="6">
         <v>55</v>
-      </c>
-      <c r="J29" t="s" s="6">
-        <v>56</v>
       </c>
       <c r="K29" t="s" s="6">
         <v>24</v>
@@ -3390,10 +3518,10 @@
       </c>
       <c r="H30"/>
       <c r="I30" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s" s="6">
         <v>24</v>
@@ -3422,7 +3550,7 @@
         <v>139</v>
       </c>
       <c r="C31" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s" s="6">
@@ -3436,10 +3564,10 @@
       </c>
       <c r="H31"/>
       <c r="I31" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J31" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K31" t="s" s="6">
         <v>24</v>
@@ -3454,7 +3582,7 @@
         <v>42917.57342179398</v>
       </c>
       <c r="O31" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P31" t="s" s="6">
         <v>27</v>
@@ -3528,10 +3656,10 @@
       </c>
       <c r="H33"/>
       <c r="I33" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J33" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K33" t="s" s="6">
         <v>24</v>
@@ -3606,7 +3734,7 @@
         <v>151</v>
       </c>
       <c r="C35" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s" s="6">
@@ -3623,7 +3751,7 @@
         <v>153</v>
       </c>
       <c r="J35" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K35" t="s" s="6">
         <v>24</v>
@@ -3638,7 +3766,7 @@
         <v>42917.48656599537</v>
       </c>
       <c r="O35" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s" s="6">
         <v>27</v>
@@ -3669,10 +3797,10 @@
         <v>153</v>
       </c>
       <c r="J36" t="s" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L36" t="s" s="6">
         <v>25</v>
@@ -3698,7 +3826,7 @@
         <v>158</v>
       </c>
       <c r="C37" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s" s="6">
@@ -3721,17 +3849,17 @@
         <v>24</v>
       </c>
       <c r="L37" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M37" t="n" s="7">
         <v>42915.579387094906</v>
       </c>
       <c r="N37"/>
       <c r="O37" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P37" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -3756,16 +3884,16 @@
       </c>
       <c r="H38"/>
       <c r="I38" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J38" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K38" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L38" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M38" t="n" s="7">
         <v>42915.61265336806</v>
@@ -3775,7 +3903,7 @@
         <v>26</v>
       </c>
       <c r="P38" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -3800,10 +3928,10 @@
       </c>
       <c r="H39"/>
       <c r="I39" t="s" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="6">
         <v>24</v>
@@ -3818,7 +3946,7 @@
         <v>42917.719301666664</v>
       </c>
       <c r="O39" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" t="s" s="6">
         <v>27</v>
@@ -3855,17 +3983,19 @@
         <v>24</v>
       </c>
       <c r="L40" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M40" t="n" s="7">
         <v>42916.59024804398</v>
       </c>
-      <c r="N40"/>
+      <c r="N40" t="n" s="7">
+        <v>42945.330324814815</v>
+      </c>
       <c r="O40" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P40" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -3890,26 +4020,26 @@
       </c>
       <c r="H41"/>
       <c r="I41" t="s" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L41" t="s" s="6">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="M41" t="n" s="7">
         <v>42916.55227368056</v>
       </c>
       <c r="N41"/>
       <c r="O41" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P41" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -3980,10 +4110,10 @@
       </c>
       <c r="H43"/>
       <c r="I43" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s" s="6">
         <v>24</v>
@@ -4026,10 +4156,10 @@
       </c>
       <c r="H44"/>
       <c r="I44" t="s" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="6">
         <v>24</v>
@@ -4075,7 +4205,7 @@
         <v>124</v>
       </c>
       <c r="J45" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="6">
         <v>24</v>
@@ -4118,10 +4248,10 @@
       </c>
       <c r="H46"/>
       <c r="I46" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J46" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s" s="6">
         <v>24</v>
@@ -4213,7 +4343,7 @@
         <v>124</v>
       </c>
       <c r="J48" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="6">
         <v>24</v>
@@ -4256,10 +4386,10 @@
       </c>
       <c r="H49"/>
       <c r="I49" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="J49" t="s" s="6">
         <v>55</v>
-      </c>
-      <c r="J49" t="s" s="6">
-        <v>56</v>
       </c>
       <c r="K49" t="s" s="6">
         <v>24</v>
@@ -4302,10 +4432,10 @@
       </c>
       <c r="H50"/>
       <c r="I50" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="6">
         <v>79</v>
-      </c>
-      <c r="J50" t="s" s="6">
-        <v>80</v>
       </c>
       <c r="K50" t="s" s="6">
         <v>24</v>
@@ -4348,10 +4478,10 @@
       </c>
       <c r="H51"/>
       <c r="I51" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J51" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K51" t="s" s="6">
         <v>24</v>
@@ -4394,16 +4524,16 @@
       </c>
       <c r="H52"/>
       <c r="I52" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="J52" t="s" s="6">
-        <v>80</v>
-      </c>
       <c r="K52" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L52" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M52" t="n" s="7">
         <v>42919.629906064816</v>
@@ -4413,7 +4543,7 @@
         <v>26</v>
       </c>
       <c r="P52" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -4428,7 +4558,7 @@
       </c>
       <c r="D53"/>
       <c r="E53" t="s" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s" s="6">
         <v>20</v>
@@ -4441,7 +4571,7 @@
         <v>124</v>
       </c>
       <c r="J53" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="6">
         <v>24</v>
@@ -4487,7 +4617,7 @@
         <v>153</v>
       </c>
       <c r="J54" t="s" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s" s="6">
         <v>24</v>
@@ -4502,7 +4632,7 @@
         <v>42921.42406871528</v>
       </c>
       <c r="O54" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P54" t="s" s="6">
         <v>27</v>
@@ -4530,10 +4660,10 @@
       </c>
       <c r="H55"/>
       <c r="I55" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="6">
         <v>79</v>
-      </c>
-      <c r="J55" t="s" s="6">
-        <v>80</v>
       </c>
       <c r="K55" t="s" s="6">
         <v>24</v>
@@ -4576,10 +4706,10 @@
       </c>
       <c r="H56"/>
       <c r="I56" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s" s="6">
         <v>79</v>
-      </c>
-      <c r="J56" t="s" s="6">
-        <v>80</v>
       </c>
       <c r="K56" t="s" s="6">
         <v>24</v>
@@ -4608,7 +4738,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s" s="6">
@@ -4622,10 +4752,10 @@
       </c>
       <c r="H57"/>
       <c r="I57" t="s" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="6">
         <v>24</v>
@@ -4640,7 +4770,7 @@
         <v>42922.47615</v>
       </c>
       <c r="O57" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P57" t="s" s="6">
         <v>27</v>
@@ -4714,10 +4844,10 @@
       </c>
       <c r="H59"/>
       <c r="I59" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J59" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K59" t="s" s="6">
         <v>24</v>
@@ -4806,10 +4936,10 @@
       </c>
       <c r="H61"/>
       <c r="I61" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J61" t="s" s="6">
         <v>50</v>
-      </c>
-      <c r="J61" t="s" s="6">
-        <v>51</v>
       </c>
       <c r="K61" t="s" s="6">
         <v>24</v>
@@ -4852,10 +4982,10 @@
       </c>
       <c r="H62"/>
       <c r="I62" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J62" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K62" t="s" s="6">
         <v>24</v>
@@ -4884,7 +5014,7 @@
         <v>228</v>
       </c>
       <c r="C63" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s" s="6">
@@ -4898,7 +5028,7 @@
       </c>
       <c r="H63"/>
       <c r="I63" t="s" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s" s="6">
         <v>230</v>
@@ -4907,17 +5037,17 @@
         <v>24</v>
       </c>
       <c r="L63" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M63" t="n" s="7">
         <v>42920.48515284722</v>
       </c>
       <c r="N63"/>
       <c r="O63" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P63" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
@@ -4942,13 +5072,13 @@
       </c>
       <c r="H64"/>
       <c r="I64" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J64" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L64" t="s" s="6">
         <v>25</v>
@@ -5020,7 +5150,7 @@
         <v>240</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s" s="6">
@@ -5052,7 +5182,7 @@
         <v>42940.17755516204</v>
       </c>
       <c r="O66" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P66" t="s" s="6">
         <v>27</v>
@@ -5080,13 +5210,13 @@
       </c>
       <c r="H67"/>
       <c r="I67" t="s" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J67" t="s" s="6">
         <v>245</v>
       </c>
       <c r="K67" t="s" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L67" t="s" s="6">
         <v>25</v>
@@ -5144,7 +5274,7 @@
         <v>42923.48311108796</v>
       </c>
       <c r="O68" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P68" t="s" s="6">
         <v>27</v>
@@ -5172,10 +5302,10 @@
       </c>
       <c r="H69"/>
       <c r="I69" t="s" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J69" t="s" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K69" t="s" s="6">
         <v>24</v>
@@ -5190,7 +5320,7 @@
         <v>42931.65674712963</v>
       </c>
       <c r="O69" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P69" t="s" s="6">
         <v>27</v>
@@ -5204,11 +5334,11 @@
         <v>253</v>
       </c>
       <c r="C70" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F70" t="s" s="6">
         <v>20</v>
@@ -5218,13 +5348,13 @@
       </c>
       <c r="H70"/>
       <c r="I70" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="K70" t="s" s="6">
         <v>74</v>
-      </c>
-      <c r="J70" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="K70" t="s" s="6">
-        <v>75</v>
       </c>
       <c r="L70" t="s" s="6">
         <v>25</v>
@@ -5236,7 +5366,7 @@
         <v>42922.56055398148</v>
       </c>
       <c r="O70" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P70" t="s" s="6">
         <v>27</v>
@@ -5282,7 +5412,7 @@
         <v>42923.40325185185</v>
       </c>
       <c r="O71" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P71" t="s" s="6">
         <v>27</v>
@@ -5356,10 +5486,10 @@
       </c>
       <c r="H73"/>
       <c r="I73" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J73" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K73" t="s" s="6">
         <v>24</v>
@@ -5402,10 +5532,10 @@
       </c>
       <c r="H74"/>
       <c r="I74" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J74" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K74" t="s" s="6">
         <v>24</v>
@@ -5420,7 +5550,7 @@
         <v>42923.392815439816</v>
       </c>
       <c r="O74" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P74" t="s" s="6">
         <v>27</v>
@@ -5466,7 +5596,7 @@
         <v>42921.55322997685</v>
       </c>
       <c r="O75" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P75" t="s" s="6">
         <v>27</v>
@@ -5512,7 +5642,7 @@
         <v>42924.58728068287</v>
       </c>
       <c r="O76" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P76" t="s" s="6">
         <v>27</v>
@@ -5526,7 +5656,7 @@
         <v>274</v>
       </c>
       <c r="C77" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s" s="6">
@@ -5549,17 +5679,17 @@
         <v>24</v>
       </c>
       <c r="L77" t="s" s="6">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="M77" t="n" s="7">
         <v>42921.48321846065</v>
       </c>
       <c r="N77"/>
       <c r="O77" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P77" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
@@ -5620,7 +5750,7 @@
       </c>
       <c r="D79"/>
       <c r="E79" t="s" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s" s="6">
         <v>20</v>
@@ -5630,10 +5760,10 @@
       </c>
       <c r="H79"/>
       <c r="I79" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J79" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K79" t="s" s="6">
         <v>24</v>
@@ -5676,16 +5806,16 @@
       </c>
       <c r="H80"/>
       <c r="I80" t="s" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J80" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K80" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L80" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M80" t="n" s="7">
         <v>42921.56771258102</v>
@@ -5695,7 +5825,7 @@
         <v>26</v>
       </c>
       <c r="P80" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
@@ -5706,11 +5836,11 @@
         <v>283</v>
       </c>
       <c r="C81" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s" s="6">
         <v>20</v>
@@ -5720,10 +5850,10 @@
       </c>
       <c r="H81"/>
       <c r="I81" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J81" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K81" t="s" s="6">
         <v>24</v>
@@ -5738,7 +5868,7 @@
         <v>42924.36850377315</v>
       </c>
       <c r="O81" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P81" t="s" s="6">
         <v>27</v>
@@ -5752,7 +5882,7 @@
         <v>285</v>
       </c>
       <c r="C82" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="s" s="6">
@@ -5766,7 +5896,7 @@
       </c>
       <c r="H82"/>
       <c r="I82" t="s" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J82" t="s" s="6">
         <v>230</v>
@@ -5784,7 +5914,7 @@
         <v>42923.62200909722</v>
       </c>
       <c r="O82" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P82" t="s" s="6">
         <v>27</v>
@@ -5812,10 +5942,10 @@
       </c>
       <c r="H83"/>
       <c r="I83" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J83" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K83" t="s" s="6">
         <v>24</v>
@@ -5848,13 +5978,13 @@
       </c>
       <c r="D84"/>
       <c r="E84" t="s" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F84" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G84" t="s" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
@@ -5865,17 +5995,17 @@
         <v>24</v>
       </c>
       <c r="L84" t="s" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M84" t="n" s="7">
         <v>42922.4780568287</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P84" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
@@ -5900,10 +6030,10 @@
       </c>
       <c r="H85"/>
       <c r="I85" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J85" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K85" t="s" s="6">
         <v>24</v>
@@ -5946,10 +6076,10 @@
       </c>
       <c r="H86"/>
       <c r="I86" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J86" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K86" t="s" s="6">
         <v>24</v>
@@ -6044,7 +6174,7 @@
         <v>23</v>
       </c>
       <c r="K88" t="s" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L88" t="s" s="6">
         <v>25</v>
@@ -6070,7 +6200,7 @@
         <v>302</v>
       </c>
       <c r="C89" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D89"/>
       <c r="E89" t="s" s="6">
@@ -6084,7 +6214,7 @@
       </c>
       <c r="H89"/>
       <c r="I89" t="s" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J89" t="s" s="6">
         <v>230</v>
@@ -6102,7 +6232,7 @@
         <v>42928.49700982639</v>
       </c>
       <c r="O89" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P89" t="s" s="6">
         <v>27</v>
@@ -6133,7 +6263,7 @@
         <v>306</v>
       </c>
       <c r="J90" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K90" t="s" s="6">
         <v>24</v>
@@ -6222,10 +6352,10 @@
       </c>
       <c r="H92"/>
       <c r="I92" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J92" t="s" s="6">
         <v>50</v>
-      </c>
-      <c r="J92" t="s" s="6">
-        <v>51</v>
       </c>
       <c r="K92" t="s" s="6">
         <v>24</v>
@@ -6268,10 +6398,10 @@
       </c>
       <c r="H93"/>
       <c r="I93" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J93" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K93" t="s" s="6">
         <v>24</v>
@@ -6300,7 +6430,7 @@
         <v>316</v>
       </c>
       <c r="C94" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D94"/>
       <c r="E94" t="s" s="6">
@@ -6314,7 +6444,7 @@
       </c>
       <c r="H94"/>
       <c r="I94" t="s" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J94" t="s" s="6">
         <v>245</v>
@@ -6323,17 +6453,17 @@
         <v>24</v>
       </c>
       <c r="L94" t="s" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M94" t="n" s="7">
         <v>42922.46490513889</v>
       </c>
       <c r="N94"/>
       <c r="O94" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P94" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
@@ -6358,10 +6488,10 @@
       </c>
       <c r="H95"/>
       <c r="I95" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J95" t="s" s="6">
         <v>50</v>
-      </c>
-      <c r="J95" t="s" s="6">
-        <v>51</v>
       </c>
       <c r="K95" t="s" s="6">
         <v>24</v>
@@ -6404,10 +6534,10 @@
       </c>
       <c r="H96"/>
       <c r="I96" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J96" t="s" s="6">
         <v>50</v>
-      </c>
-      <c r="J96" t="s" s="6">
-        <v>51</v>
       </c>
       <c r="K96" t="s" s="6">
         <v>24</v>
@@ -6436,7 +6566,7 @@
         <v>324</v>
       </c>
       <c r="C97" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D97"/>
       <c r="E97" t="s" s="6">
@@ -6453,7 +6583,7 @@
         <v>325</v>
       </c>
       <c r="J97" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K97" t="s" s="6">
         <v>24</v>
@@ -6468,7 +6598,7 @@
         <v>42928.46005204861</v>
       </c>
       <c r="O97" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P97" t="s" s="6">
         <v>27</v>
@@ -6482,7 +6612,7 @@
         <v>327</v>
       </c>
       <c r="C98" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D98"/>
       <c r="E98" t="s" s="6">
@@ -6514,7 +6644,7 @@
         <v>42940.17758260416</v>
       </c>
       <c r="O98" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P98" t="s" s="6">
         <v>27</v>
@@ -6551,17 +6681,17 @@
         <v>24</v>
       </c>
       <c r="L99" t="s" s="6">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="M99" t="n" s="7">
         <v>42923.48891199074</v>
       </c>
       <c r="N99"/>
       <c r="O99" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P99" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100">
@@ -6586,26 +6716,26 @@
       </c>
       <c r="H100"/>
       <c r="I100" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="J100" t="s" s="6">
-        <v>80</v>
-      </c>
       <c r="K100" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L100" t="s" s="6">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="M100" t="n" s="7">
         <v>42923.618346145835</v>
       </c>
       <c r="N100"/>
       <c r="O100" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P100" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
@@ -6630,10 +6760,10 @@
       </c>
       <c r="H101"/>
       <c r="I101" t="s" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J101" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K101" t="s" s="6">
         <v>24</v>
@@ -6676,10 +6806,10 @@
       </c>
       <c r="H102"/>
       <c r="I102" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J102" t="s" s="6">
         <v>79</v>
-      </c>
-      <c r="J102" t="s" s="6">
-        <v>80</v>
       </c>
       <c r="K102" t="s" s="6">
         <v>24</v>
@@ -6725,7 +6855,7 @@
         <v>22</v>
       </c>
       <c r="J103" t="s" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K103" t="s" s="6">
         <v>24</v>
@@ -6740,7 +6870,7 @@
         <v>42925.4935312963</v>
       </c>
       <c r="O103" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P103" t="s" s="6">
         <v>27</v>
@@ -6786,7 +6916,7 @@
         <v>42925.490040543984</v>
       </c>
       <c r="O104" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P104" t="s" s="6">
         <v>27</v>
@@ -6820,7 +6950,7 @@
         <v>245</v>
       </c>
       <c r="K105" t="s" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L105" t="s" s="6">
         <v>25</v>
@@ -6860,10 +6990,10 @@
       </c>
       <c r="H106"/>
       <c r="I106" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J106" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K106" t="s" s="6">
         <v>24</v>
@@ -6896,7 +7026,7 @@
       </c>
       <c r="D107"/>
       <c r="E107" t="s" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F107" t="s" s="6">
         <v>20</v>
@@ -6909,7 +7039,7 @@
         <v>124</v>
       </c>
       <c r="J107" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K107" t="s" s="6">
         <v>24</v>
@@ -6942,7 +7072,7 @@
       </c>
       <c r="D108"/>
       <c r="E108" t="s" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F108" t="s" s="6">
         <v>20</v>
@@ -6955,7 +7085,7 @@
         <v>124</v>
       </c>
       <c r="J108" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K108" t="s" s="6">
         <v>24</v>
@@ -6988,7 +7118,7 @@
       </c>
       <c r="D109"/>
       <c r="E109" t="s" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F109" t="s" s="6">
         <v>20</v>
@@ -7001,7 +7131,7 @@
         <v>124</v>
       </c>
       <c r="J109" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K109" t="s" s="6">
         <v>24</v>
@@ -7034,7 +7164,7 @@
       </c>
       <c r="D110"/>
       <c r="E110" t="s" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F110" t="s" s="6">
         <v>20</v>
@@ -7062,7 +7192,7 @@
         <v>42928.63588425926</v>
       </c>
       <c r="O110" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P110" t="s" s="6">
         <v>27</v>
@@ -7090,13 +7220,13 @@
       </c>
       <c r="H111"/>
       <c r="I111" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="J111" t="s" s="6">
         <v>55</v>
       </c>
-      <c r="J111" t="s" s="6">
-        <v>56</v>
-      </c>
       <c r="K111" t="s" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L111" t="s" s="6">
         <v>25</v>
@@ -7136,10 +7266,10 @@
       </c>
       <c r="H112"/>
       <c r="I112" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="J112" t="s" s="6">
         <v>55</v>
-      </c>
-      <c r="J112" t="s" s="6">
-        <v>56</v>
       </c>
       <c r="K112" t="s" s="6">
         <v>24</v>
@@ -7182,10 +7312,10 @@
       </c>
       <c r="H113"/>
       <c r="I113" t="s" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J113" t="s" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K113" t="s" s="6">
         <v>24</v>
@@ -7231,7 +7361,7 @@
         <v>124</v>
       </c>
       <c r="J114" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K114" t="s" s="6">
         <v>24</v>
@@ -7277,7 +7407,7 @@
         <v>124</v>
       </c>
       <c r="J115" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K115" t="s" s="6">
         <v>24</v>
@@ -7366,10 +7496,10 @@
       </c>
       <c r="H117"/>
       <c r="I117" t="s" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J117" t="s" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K117" t="s" s="6">
         <v>24</v>
@@ -7412,10 +7542,10 @@
       </c>
       <c r="H118"/>
       <c r="I118" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J118" t="s" s="6">
         <v>79</v>
-      </c>
-      <c r="J118" t="s" s="6">
-        <v>80</v>
       </c>
       <c r="K118" t="s" s="6">
         <v>24</v>
@@ -7458,16 +7588,16 @@
       </c>
       <c r="H119"/>
       <c r="I119" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="J119" t="s" s="6">
         <v>64</v>
       </c>
-      <c r="J119" t="s" s="6">
-        <v>65</v>
-      </c>
       <c r="K119" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L119" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M119" t="n" s="7">
         <v>42927.685301446756</v>
@@ -7477,7 +7607,7 @@
         <v>26</v>
       </c>
       <c r="P119" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
@@ -7488,7 +7618,7 @@
         <v>378</v>
       </c>
       <c r="C120" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D120"/>
       <c r="E120" t="s" s="6">
@@ -7502,26 +7632,26 @@
       </c>
       <c r="H120"/>
       <c r="I120" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="J120" t="s" s="6">
         <v>64</v>
       </c>
-      <c r="J120" t="s" s="6">
-        <v>65</v>
-      </c>
       <c r="K120" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L120" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M120" t="n" s="7">
         <v>42928.399182939815</v>
       </c>
       <c r="N120"/>
       <c r="O120" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P120" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
@@ -7552,7 +7682,7 @@
         <v>32</v>
       </c>
       <c r="K121" t="s" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L121" t="s" s="6">
         <v>25</v>
@@ -7592,7 +7722,7 @@
       </c>
       <c r="H122"/>
       <c r="I122" t="s" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J122" t="s" s="6">
         <v>245</v>
@@ -7601,17 +7731,19 @@
         <v>24</v>
       </c>
       <c r="L122" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M122" t="n" s="7">
         <v>42928.67371119213</v>
       </c>
-      <c r="N122"/>
+      <c r="N122" t="n" s="7">
+        <v>42944.50760519676</v>
+      </c>
       <c r="O122" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P122" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
@@ -7668,7 +7800,7 @@
         <v>388</v>
       </c>
       <c r="C124" t="s" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D124"/>
       <c r="E124" t="s" s="6">
@@ -7682,10 +7814,10 @@
       </c>
       <c r="H124"/>
       <c r="I124" t="s" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J124" t="s" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K124" t="s" s="6">
         <v>24</v>
@@ -7700,7 +7832,7 @@
         <v>42943.45533644676</v>
       </c>
       <c r="O124" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P124" t="s" s="6">
         <v>27</v>
@@ -7728,10 +7860,10 @@
       </c>
       <c r="H125"/>
       <c r="I125" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="J125" t="s" s="6">
         <v>55</v>
-      </c>
-      <c r="J125" t="s" s="6">
-        <v>56</v>
       </c>
       <c r="K125" t="s" s="6">
         <v>24</v>
@@ -7791,7 +7923,7 @@
         <v>26</v>
       </c>
       <c r="P126" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127">
@@ -7816,10 +7948,10 @@
       </c>
       <c r="H127"/>
       <c r="I127" t="s" s="6">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="J127" t="s" s="6">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="K127" t="s" s="6">
         <v>24</v>
@@ -7828,10 +7960,10 @@
         <v>25</v>
       </c>
       <c r="M127" t="n" s="7">
-        <v>42930.43367122685</v>
+        <v>42930.60860648148</v>
       </c>
       <c r="N127" t="n" s="7">
-        <v>42937.47969596065</v>
+        <v>42946.82696394676</v>
       </c>
       <c r="O127" t="s" s="6">
         <v>26</v>
@@ -7862,26 +7994,28 @@
       </c>
       <c r="H128"/>
       <c r="I128" t="s" s="6">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="J128" t="s" s="6">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K128" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L128" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M128" t="n" s="7">
-        <v>42930.57732398148</v>
-      </c>
-      <c r="N128"/>
+        <v>42930.43367122685</v>
+      </c>
+      <c r="N128" t="n" s="7">
+        <v>42937.47969596065</v>
+      </c>
       <c r="O128" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P128" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
@@ -7906,10 +8040,10 @@
       </c>
       <c r="H129"/>
       <c r="I129" t="s" s="6">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="J129" t="s" s="6">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K129" t="s" s="6">
         <v>24</v>
@@ -7918,10 +8052,10 @@
         <v>25</v>
       </c>
       <c r="M129" t="n" s="7">
-        <v>42930.58239618056</v>
+        <v>42930.57732398148</v>
       </c>
       <c r="N129" t="n" s="7">
-        <v>42936.317117314815</v>
+        <v>42945.524764236114</v>
       </c>
       <c r="O129" t="s" s="6">
         <v>26</v>
@@ -7942,7 +8076,7 @@
       </c>
       <c r="D130"/>
       <c r="E130" t="s" s="6">
-        <v>95</v>
+        <v>406</v>
       </c>
       <c r="F130" t="s" s="6">
         <v>20</v>
@@ -7952,10 +8086,10 @@
       </c>
       <c r="H130"/>
       <c r="I130" t="s" s="6">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J130" t="s" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K130" t="s" s="6">
         <v>24</v>
@@ -7964,13 +8098,13 @@
         <v>25</v>
       </c>
       <c r="M130" t="n" s="7">
-        <v>42930.624384282404</v>
+        <v>42930.58239618056</v>
       </c>
       <c r="N130" t="n" s="7">
-        <v>42935.47617613426</v>
+        <v>42936.317117314815</v>
       </c>
       <c r="O130" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P130" t="s" s="6">
         <v>27</v>
@@ -7978,17 +8112,17 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="6">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B131" t="s" s="6">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D131"/>
       <c r="E131" t="s" s="6">
-        <v>397</v>
+        <v>94</v>
       </c>
       <c r="F131" t="s" s="6">
         <v>20</v>
@@ -7998,11 +8132,11 @@
       </c>
       <c r="H131"/>
       <c r="I131" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="J131" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="J131" t="s" s="6">
-        <v>80</v>
-      </c>
       <c r="K131" t="s" s="6">
         <v>24</v>
       </c>
@@ -8010,13 +8144,13 @@
         <v>25</v>
       </c>
       <c r="M131" t="n" s="7">
-        <v>42930.63529805555</v>
+        <v>42930.624384282404</v>
       </c>
       <c r="N131" t="n" s="7">
-        <v>42935.42407565972</v>
+        <v>42935.47617613426</v>
       </c>
       <c r="O131" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P131" t="s" s="6">
         <v>27</v>
@@ -8024,17 +8158,17 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="6">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B132" t="s" s="6">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C132" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D132"/>
       <c r="E132" t="s" s="6">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F132" t="s" s="6">
         <v>20</v>
@@ -8044,10 +8178,10 @@
       </c>
       <c r="H132"/>
       <c r="I132" t="s" s="6">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J132" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K132" t="s" s="6">
         <v>24</v>
@@ -8056,10 +8190,10 @@
         <v>25</v>
       </c>
       <c r="M132" t="n" s="7">
-        <v>42930.381208113424</v>
+        <v>42930.63529805555</v>
       </c>
       <c r="N132" t="n" s="7">
-        <v>42932.635904305556</v>
+        <v>42935.42407565972</v>
       </c>
       <c r="O132" t="s" s="6">
         <v>26</v>
@@ -8076,7 +8210,7 @@
         <v>412</v>
       </c>
       <c r="C133" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D133"/>
       <c r="E133" t="s" s="6">
@@ -8090,10 +8224,10 @@
       </c>
       <c r="H133"/>
       <c r="I133" t="s" s="6">
-        <v>306</v>
+        <v>89</v>
       </c>
       <c r="J133" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K133" t="s" s="6">
         <v>24</v>
@@ -8102,13 +8236,13 @@
         <v>25</v>
       </c>
       <c r="M133" t="n" s="7">
-        <v>42930.64637552083</v>
+        <v>42930.381208113424</v>
       </c>
       <c r="N133" t="n" s="7">
-        <v>42932.649765208334</v>
+        <v>42932.635904305556</v>
       </c>
       <c r="O133" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P133" t="s" s="6">
         <v>27</v>
@@ -8122,11 +8256,11 @@
         <v>415</v>
       </c>
       <c r="C134" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D134"/>
       <c r="E134" t="s" s="6">
-        <v>220</v>
+        <v>416</v>
       </c>
       <c r="F134" t="s" s="6">
         <v>20</v>
@@ -8136,10 +8270,10 @@
       </c>
       <c r="H134"/>
       <c r="I134" t="s" s="6">
-        <v>114</v>
+        <v>306</v>
       </c>
       <c r="J134" t="s" s="6">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="K134" t="s" s="6">
         <v>24</v>
@@ -8148,13 +8282,13 @@
         <v>25</v>
       </c>
       <c r="M134" t="n" s="7">
-        <v>42933.33650349537</v>
+        <v>42930.64637552083</v>
       </c>
       <c r="N134" t="n" s="7">
-        <v>42935.670704351855</v>
+        <v>42932.649765208334</v>
       </c>
       <c r="O134" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P134" t="s" s="6">
         <v>27</v>
@@ -8162,17 +8296,17 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="6">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B135" t="s" s="6">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C135" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D135"/>
       <c r="E135" t="s" s="6">
-        <v>418</v>
+        <v>220</v>
       </c>
       <c r="F135" t="s" s="6">
         <v>20</v>
@@ -8182,10 +8316,10 @@
       </c>
       <c r="H135"/>
       <c r="I135" t="s" s="6">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="J135" t="s" s="6">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="K135" t="s" s="6">
         <v>24</v>
@@ -8194,10 +8328,10 @@
         <v>25</v>
       </c>
       <c r="M135" t="n" s="7">
-        <v>42933.49278811343</v>
+        <v>42933.33650349537</v>
       </c>
       <c r="N135" t="n" s="7">
-        <v>42935.49354591435</v>
+        <v>42935.670704351855</v>
       </c>
       <c r="O135" t="s" s="6">
         <v>26</v>
@@ -8228,26 +8362,28 @@
       </c>
       <c r="H136"/>
       <c r="I136" t="s" s="6">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="J136" t="s" s="6">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="K136" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L136" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M136" t="n" s="7">
-        <v>42933.42121849537</v>
-      </c>
-      <c r="N136"/>
+        <v>42933.49278811343</v>
+      </c>
+      <c r="N136" t="n" s="7">
+        <v>42935.49354591435</v>
+      </c>
       <c r="O136" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P136" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
@@ -8272,10 +8408,10 @@
       </c>
       <c r="H137"/>
       <c r="I137" t="s" s="6">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="J137" t="s" s="6">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K137" t="s" s="6">
         <v>24</v>
@@ -8284,10 +8420,10 @@
         <v>25</v>
       </c>
       <c r="M137" t="n" s="7">
-        <v>42933.563401597225</v>
+        <v>42933.42121849537</v>
       </c>
       <c r="N137" t="n" s="7">
-        <v>42943.50399902778</v>
+        <v>42944.75406072917</v>
       </c>
       <c r="O137" t="s" s="6">
         <v>26</v>
@@ -8318,10 +8454,10 @@
       </c>
       <c r="H138"/>
       <c r="I138" t="s" s="6">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J138" t="s" s="6">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="K138" t="s" s="6">
         <v>24</v>
@@ -8330,10 +8466,10 @@
         <v>25</v>
       </c>
       <c r="M138" t="n" s="7">
-        <v>42933.60017724537</v>
+        <v>42933.563401597225</v>
       </c>
       <c r="N138" t="n" s="7">
-        <v>42936.30600511574</v>
+        <v>42943.50399902778</v>
       </c>
       <c r="O138" t="s" s="6">
         <v>26</v>
@@ -8354,7 +8490,7 @@
       </c>
       <c r="D139"/>
       <c r="E139" t="s" s="6">
-        <v>113</v>
+        <v>430</v>
       </c>
       <c r="F139" t="s" s="6">
         <v>20</v>
@@ -8364,11 +8500,11 @@
       </c>
       <c r="H139"/>
       <c r="I139" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J139" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="J139" t="s" s="6">
-        <v>245</v>
-      </c>
       <c r="K139" t="s" s="6">
         <v>24</v>
       </c>
@@ -8376,10 +8512,10 @@
         <v>25</v>
       </c>
       <c r="M139" t="n" s="7">
-        <v>42933.57802693287</v>
+        <v>42933.60017724537</v>
       </c>
       <c r="N139" t="n" s="7">
-        <v>42936.36504625</v>
+        <v>42936.30600511574</v>
       </c>
       <c r="O139" t="s" s="6">
         <v>26</v>
@@ -8390,17 +8526,17 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="6">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B140" t="s" s="6">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C140" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D140"/>
       <c r="E140" t="s" s="6">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="F140" t="s" s="6">
         <v>20</v>
@@ -8410,10 +8546,10 @@
       </c>
       <c r="H140"/>
       <c r="I140" t="s" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J140" t="s" s="6">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="K140" t="s" s="6">
         <v>24</v>
@@ -8422,10 +8558,10 @@
         <v>25</v>
       </c>
       <c r="M140" t="n" s="7">
-        <v>42933.603404699075</v>
+        <v>42933.57802693287</v>
       </c>
       <c r="N140" t="n" s="7">
-        <v>42936.30954553241</v>
+        <v>42936.36504625</v>
       </c>
       <c r="O140" t="s" s="6">
         <v>26</v>
@@ -8436,17 +8572,17 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="6">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B141" t="s" s="6">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C141" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D141"/>
       <c r="E141" t="s" s="6">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="F141" t="s" s="6">
         <v>20</v>
@@ -8456,11 +8592,11 @@
       </c>
       <c r="H141"/>
       <c r="I141" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J141" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="J141" t="s" s="6">
-        <v>51</v>
-      </c>
       <c r="K141" t="s" s="6">
         <v>24</v>
       </c>
@@ -8468,10 +8604,10 @@
         <v>25</v>
       </c>
       <c r="M141" t="n" s="7">
-        <v>42933.617191909725</v>
+        <v>42933.603404699075</v>
       </c>
       <c r="N141" t="n" s="7">
-        <v>42936.312952962966</v>
+        <v>42936.30954553241</v>
       </c>
       <c r="O141" t="s" s="6">
         <v>26</v>
@@ -8492,7 +8628,7 @@
       </c>
       <c r="D142"/>
       <c r="E142" t="s" s="6">
-        <v>149</v>
+        <v>437</v>
       </c>
       <c r="F142" t="s" s="6">
         <v>20</v>
@@ -8502,10 +8638,10 @@
       </c>
       <c r="H142"/>
       <c r="I142" t="s" s="6">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J142" t="s" s="6">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="K142" t="s" s="6">
         <v>24</v>
@@ -8514,10 +8650,10 @@
         <v>25</v>
       </c>
       <c r="M142" t="n" s="7">
-        <v>42933.70302299769</v>
+        <v>42933.617191909725</v>
       </c>
       <c r="N142" t="n" s="7">
-        <v>42937.479664108796</v>
+        <v>42936.312952962966</v>
       </c>
       <c r="O142" t="s" s="6">
         <v>26</v>
@@ -8528,17 +8664,17 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="6">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B143" t="s" s="6">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C143" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D143"/>
       <c r="E143" t="s" s="6">
-        <v>439</v>
+        <v>149</v>
       </c>
       <c r="F143" t="s" s="6">
         <v>20</v>
@@ -8548,10 +8684,10 @@
       </c>
       <c r="H143"/>
       <c r="I143" t="s" s="6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="J143" t="s" s="6">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="K143" t="s" s="6">
         <v>24</v>
@@ -8560,13 +8696,13 @@
         <v>25</v>
       </c>
       <c r="M143" t="n" s="7">
-        <v>42934.38731086806</v>
+        <v>42933.70302299769</v>
       </c>
       <c r="N143" t="n" s="7">
-        <v>42936.38935932871</v>
+        <v>42937.479664108796</v>
       </c>
       <c r="O143" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P143" t="s" s="6">
         <v>27</v>
@@ -8580,11 +8716,11 @@
         <v>441</v>
       </c>
       <c r="C144" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D144"/>
       <c r="E144" t="s" s="6">
-        <v>342</v>
+        <v>442</v>
       </c>
       <c r="F144" t="s" s="6">
         <v>20</v>
@@ -8594,26 +8730,28 @@
       </c>
       <c r="H144"/>
       <c r="I144" t="s" s="6">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="J144" t="s" s="6">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="K144" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L144" t="s" s="6">
-        <v>442</v>
+        <v>25</v>
       </c>
       <c r="M144" t="n" s="7">
-        <v>42934.487174884256</v>
-      </c>
-      <c r="N144"/>
+        <v>42934.38731086806</v>
+      </c>
+      <c r="N144" t="n" s="7">
+        <v>42936.38935932871</v>
+      </c>
       <c r="O144" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P144" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145">
@@ -8624,99 +8762,97 @@
         <v>444</v>
       </c>
       <c r="C145" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D145"/>
       <c r="E145" t="s" s="6">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="F145" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G145" t="s" s="6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H145"/>
-      <c r="I145"/>
+      <c r="I145" t="s" s="6">
+        <v>330</v>
+      </c>
       <c r="J145" t="s" s="6">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="K145" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L145" t="s" s="6">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="M145" t="n" s="7">
-        <v>42934.61378634259</v>
+        <v>42934.487174884256</v>
       </c>
       <c r="N145"/>
       <c r="O145" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P145" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="6">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B146" t="s" s="6">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D146"/>
       <c r="E146" t="s" s="6">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G146" t="s" s="6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H146"/>
-      <c r="I146" t="s" s="6">
-        <v>22</v>
-      </c>
+      <c r="I146"/>
       <c r="J146" t="s" s="6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K146" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L146" t="s" s="6">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M146" t="n" s="7">
-        <v>42934.49181762731</v>
-      </c>
-      <c r="N146" t="n" s="7">
-        <v>42943.66368907408</v>
-      </c>
+        <v>42934.61378634259</v>
+      </c>
+      <c r="N146"/>
       <c r="O146" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P146" t="s" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="6">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B147" t="s" s="6">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C147" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D147"/>
       <c r="E147" t="s" s="6">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="F147" t="s" s="6">
         <v>20</v>
@@ -8726,10 +8862,10 @@
       </c>
       <c r="H147"/>
       <c r="I147" t="s" s="6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="J147" t="s" s="6">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="K147" t="s" s="6">
         <v>24</v>
@@ -8738,10 +8874,10 @@
         <v>25</v>
       </c>
       <c r="M147" t="n" s="7">
-        <v>42934.535187106485</v>
+        <v>42934.49181762731</v>
       </c>
       <c r="N147" t="n" s="7">
-        <v>42936.545666018515</v>
+        <v>42943.66368907408</v>
       </c>
       <c r="O147" t="s" s="6">
         <v>26</v>
@@ -8752,17 +8888,17 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="6">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B148" t="s" s="6">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C148" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D148"/>
       <c r="E148" t="s" s="6">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="F148" t="s" s="6">
         <v>20</v>
@@ -8772,10 +8908,10 @@
       </c>
       <c r="H148"/>
       <c r="I148" t="s" s="6">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="J148" t="s" s="6">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K148" t="s" s="6">
         <v>24</v>
@@ -8784,10 +8920,10 @@
         <v>25</v>
       </c>
       <c r="M148" t="n" s="7">
-        <v>42934.59042439815</v>
+        <v>42934.535187106485</v>
       </c>
       <c r="N148" t="n" s="7">
-        <v>42938.60814084491</v>
+        <v>42936.545666018515</v>
       </c>
       <c r="O148" t="s" s="6">
         <v>26</v>
@@ -8798,17 +8934,17 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="6">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B149" t="s" s="6">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C149" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D149"/>
       <c r="E149" t="s" s="6">
-        <v>453</v>
+        <v>137</v>
       </c>
       <c r="F149" t="s" s="6">
         <v>20</v>
@@ -8818,10 +8954,10 @@
       </c>
       <c r="H149"/>
       <c r="I149" t="s" s="6">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="J149" t="s" s="6">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="K149" t="s" s="6">
         <v>24</v>
@@ -8830,13 +8966,13 @@
         <v>25</v>
       </c>
       <c r="M149" t="n" s="7">
-        <v>42934.64839903935</v>
+        <v>42934.59042439815</v>
       </c>
       <c r="N149" t="n" s="7">
-        <v>42936.667250833336</v>
+        <v>42938.60814084491</v>
       </c>
       <c r="O149" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P149" t="s" s="6">
         <v>27</v>
@@ -8850,11 +8986,11 @@
         <v>455</v>
       </c>
       <c r="C150" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D150"/>
       <c r="E150" t="s" s="6">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="F150" t="s" s="6">
         <v>20</v>
@@ -8864,10 +9000,10 @@
       </c>
       <c r="H150"/>
       <c r="I150" t="s" s="6">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J150" t="s" s="6">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K150" t="s" s="6">
         <v>24</v>
@@ -8876,13 +9012,13 @@
         <v>25</v>
       </c>
       <c r="M150" t="n" s="7">
-        <v>42934.69697251157</v>
+        <v>42934.64839903935</v>
       </c>
       <c r="N150" t="n" s="7">
-        <v>42937.47269228009</v>
+        <v>42936.667250833336</v>
       </c>
       <c r="O150" t="s" s="6">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="P150" t="s" s="6">
         <v>27</v>
@@ -8890,17 +9026,17 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="6">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B151" t="s" s="6">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C151" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D151"/>
       <c r="E151" t="s" s="6">
-        <v>458</v>
+        <v>149</v>
       </c>
       <c r="F151" t="s" s="6">
         <v>20</v>
@@ -8910,22 +9046,22 @@
       </c>
       <c r="H151"/>
       <c r="I151" t="s" s="6">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="J151" t="s" s="6">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="K151" t="s" s="6">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="L151" t="s" s="6">
         <v>25</v>
       </c>
       <c r="M151" t="n" s="7">
-        <v>42934.5273825</v>
+        <v>42934.69697251157</v>
       </c>
       <c r="N151" t="n" s="7">
-        <v>42938.57338396991</v>
+        <v>42937.47269228009</v>
       </c>
       <c r="O151" t="s" s="6">
         <v>26</v>
@@ -8946,7 +9082,7 @@
       </c>
       <c r="D152"/>
       <c r="E152" t="s" s="6">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="F152" t="s" s="6">
         <v>20</v>
@@ -8956,22 +9092,22 @@
       </c>
       <c r="H152"/>
       <c r="I152" t="s" s="6">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J152" t="s" s="6">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K152" t="s" s="6">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="L152" t="s" s="6">
         <v>25</v>
       </c>
       <c r="M152" t="n" s="7">
-        <v>42934.57855387731</v>
+        <v>42934.5273825</v>
       </c>
       <c r="N152" t="n" s="7">
-        <v>42937.500470555555</v>
+        <v>42938.57338396991</v>
       </c>
       <c r="O152" t="s" s="6">
         <v>26</v>
@@ -8982,90 +9118,90 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="6">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B153" t="s" s="6">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C153" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D153"/>
       <c r="E153" t="s" s="6">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F153" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G153" t="s" s="6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H153"/>
-      <c r="I153"/>
+      <c r="I153" t="s" s="6">
+        <v>101</v>
+      </c>
       <c r="J153" t="s" s="6">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K153" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L153" t="s" s="6">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M153" t="n" s="7">
-        <v>42934.61624258102</v>
-      </c>
-      <c r="N153"/>
+        <v>42934.57855387731</v>
+      </c>
+      <c r="N153" t="n" s="7">
+        <v>42937.500470555555</v>
+      </c>
       <c r="O153" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P153" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="6">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B154" t="s" s="6">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C154" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D154"/>
       <c r="E154" t="s" s="6">
-        <v>465</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G154" t="s" s="6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H154"/>
-      <c r="I154" t="s" s="6">
-        <v>79</v>
-      </c>
+      <c r="I154"/>
       <c r="J154" t="s" s="6">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="K154" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L154" t="s" s="6">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M154" t="n" s="7">
-        <v>42935.37560300926</v>
-      </c>
-      <c r="N154" t="n" s="7">
-        <v>42937.385876747685</v>
-      </c>
+        <v>42934.61624258102</v>
+      </c>
+      <c r="N154"/>
       <c r="O154" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P154" t="s" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155">
@@ -9080,7 +9216,7 @@
       </c>
       <c r="D155"/>
       <c r="E155" t="s" s="6">
-        <v>257</v>
+        <v>468</v>
       </c>
       <c r="F155" t="s" s="6">
         <v>20</v>
@@ -9090,41 +9226,43 @@
       </c>
       <c r="H155"/>
       <c r="I155" t="s" s="6">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J155" t="s" s="6">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="K155" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L155" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M155" t="n" s="7">
-        <v>42935.395097465276</v>
-      </c>
-      <c r="N155"/>
+        <v>42935.37560300926</v>
+      </c>
+      <c r="N155" t="n" s="7">
+        <v>42937.385876747685</v>
+      </c>
       <c r="O155" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P155" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="6">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B156" t="s" s="6">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C156" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D156"/>
       <c r="E156" t="s" s="6">
-        <v>470</v>
+        <v>257</v>
       </c>
       <c r="F156" t="s" s="6">
         <v>20</v>
@@ -9146,13 +9284,13 @@
         <v>25</v>
       </c>
       <c r="M156" t="n" s="7">
-        <v>42935.459968993055</v>
+        <v>42935.395097465276</v>
       </c>
       <c r="N156" t="n" s="7">
-        <v>42937.46576472222</v>
+        <v>42944.403239618056</v>
       </c>
       <c r="O156" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P156" t="s" s="6">
         <v>27</v>
@@ -9170,7 +9308,7 @@
       </c>
       <c r="D157"/>
       <c r="E157" t="s" s="6">
-        <v>22</v>
+        <v>473</v>
       </c>
       <c r="F157" t="s" s="6">
         <v>20</v>
@@ -9192,13 +9330,13 @@
         <v>25</v>
       </c>
       <c r="M157" t="n" s="7">
-        <v>42935.4616965625</v>
+        <v>42935.459968993055</v>
       </c>
       <c r="N157" t="n" s="7">
-        <v>42937.465780370374</v>
+        <v>42937.46576472222</v>
       </c>
       <c r="O157" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P157" t="s" s="6">
         <v>27</v>
@@ -9206,17 +9344,17 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="6">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B158" t="s" s="6">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C158" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D158"/>
       <c r="E158" t="s" s="6">
-        <v>475</v>
+        <v>22</v>
       </c>
       <c r="F158" t="s" s="6">
         <v>20</v>
@@ -9226,10 +9364,10 @@
       </c>
       <c r="H158"/>
       <c r="I158" t="s" s="6">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J158" t="s" s="6">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="K158" t="s" s="6">
         <v>24</v>
@@ -9238,13 +9376,13 @@
         <v>25</v>
       </c>
       <c r="M158" t="n" s="7">
-        <v>42935.55268782407</v>
+        <v>42935.4616965625</v>
       </c>
       <c r="N158" t="n" s="7">
-        <v>42938.153252951386</v>
+        <v>42937.465780370374</v>
       </c>
       <c r="O158" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P158" t="s" s="6">
         <v>27</v>
@@ -9272,10 +9410,10 @@
       </c>
       <c r="H159"/>
       <c r="I159" t="s" s="6">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="J159" t="s" s="6">
-        <v>245</v>
+        <v>50</v>
       </c>
       <c r="K159" t="s" s="6">
         <v>24</v>
@@ -9284,10 +9422,10 @@
         <v>25</v>
       </c>
       <c r="M159" t="n" s="7">
-        <v>42935.364138136574</v>
+        <v>42935.55268782407</v>
       </c>
       <c r="N159" t="n" s="7">
-        <v>42937.660257905096</v>
+        <v>42938.153252951386</v>
       </c>
       <c r="O159" t="s" s="6">
         <v>26</v>
@@ -9318,10 +9456,10 @@
       </c>
       <c r="H160"/>
       <c r="I160" t="s" s="6">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="J160" t="s" s="6">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="K160" t="s" s="6">
         <v>24</v>
@@ -9330,13 +9468,13 @@
         <v>25</v>
       </c>
       <c r="M160" t="n" s="7">
-        <v>42935.455431979164</v>
+        <v>42935.364138136574</v>
       </c>
       <c r="N160" t="n" s="7">
-        <v>42937.465748194445</v>
+        <v>42937.660257905096</v>
       </c>
       <c r="O160" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P160" t="s" s="6">
         <v>27</v>
@@ -9354,7 +9492,7 @@
       </c>
       <c r="D161"/>
       <c r="E161" t="s" s="6">
-        <v>251</v>
+        <v>484</v>
       </c>
       <c r="F161" t="s" s="6">
         <v>20</v>
@@ -9364,10 +9502,10 @@
       </c>
       <c r="H161"/>
       <c r="I161" t="s" s="6">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="J161" t="s" s="6">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K161" t="s" s="6">
         <v>24</v>
@@ -9376,13 +9514,13 @@
         <v>25</v>
       </c>
       <c r="M161" t="n" s="7">
-        <v>42935.62396903935</v>
+        <v>42935.455431979164</v>
       </c>
       <c r="N161" t="n" s="7">
-        <v>42943.75411375</v>
+        <v>42937.465748194445</v>
       </c>
       <c r="O161" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P161" t="s" s="6">
         <v>27</v>
@@ -9390,10 +9528,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="6">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B162" t="s" s="6">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C162" t="s" s="6">
         <v>18</v>
@@ -9410,10 +9548,10 @@
       </c>
       <c r="H162"/>
       <c r="I162" t="s" s="6">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="J162" t="s" s="6">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K162" t="s" s="6">
         <v>24</v>
@@ -9422,10 +9560,10 @@
         <v>25</v>
       </c>
       <c r="M162" t="n" s="7">
-        <v>42935.63007429398</v>
+        <v>42935.62396903935</v>
       </c>
       <c r="N162" t="n" s="7">
-        <v>42938.39975459491</v>
+        <v>42943.75411375</v>
       </c>
       <c r="O162" t="s" s="6">
         <v>26</v>
@@ -9436,10 +9574,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="6">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B163" t="s" s="6">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C163" t="s" s="6">
         <v>18</v>
@@ -9456,7 +9594,7 @@
       </c>
       <c r="H163"/>
       <c r="I163" t="s" s="6">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="J163" t="s" s="6">
         <v>32</v>
@@ -9468,10 +9606,10 @@
         <v>25</v>
       </c>
       <c r="M163" t="n" s="7">
-        <v>42935.635152152776</v>
+        <v>42935.63007429398</v>
       </c>
       <c r="N163" t="n" s="7">
-        <v>42940.17757072917</v>
+        <v>42938.39975459491</v>
       </c>
       <c r="O163" t="s" s="6">
         <v>26</v>
@@ -9482,17 +9620,17 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="6">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B164" t="s" s="6">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C164" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D164"/>
       <c r="E164" t="s" s="6">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="F164" t="s" s="6">
         <v>20</v>
@@ -9502,22 +9640,22 @@
       </c>
       <c r="H164"/>
       <c r="I164" t="s" s="6">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="J164" t="s" s="6">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="K164" t="s" s="6">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="L164" t="s" s="6">
         <v>25</v>
       </c>
       <c r="M164" t="n" s="7">
-        <v>42936.51758690972</v>
+        <v>42935.635152152776</v>
       </c>
       <c r="N164" t="n" s="7">
-        <v>42939.462261064815</v>
+        <v>42940.17757072917</v>
       </c>
       <c r="O164" t="s" s="6">
         <v>26</v>
@@ -9528,17 +9666,17 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="6">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B165" t="s" s="6">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C165" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D165"/>
       <c r="E165" t="s" s="6">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="F165" t="s" s="6">
         <v>20</v>
@@ -9548,41 +9686,43 @@
       </c>
       <c r="H165"/>
       <c r="I165" t="s" s="6">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="J165" t="s" s="6">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="K165" t="s" s="6">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="L165" t="s" s="6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M165" t="n" s="7">
-        <v>42936.71802328704</v>
-      </c>
-      <c r="N165"/>
+        <v>42936.51758690972</v>
+      </c>
+      <c r="N165" t="n" s="7">
+        <v>42939.462261064815</v>
+      </c>
       <c r="O165" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P165" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="6">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B166" t="s" s="6">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C166" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D166"/>
       <c r="E166" t="s" s="6">
-        <v>494</v>
+        <v>244</v>
       </c>
       <c r="F166" t="s" s="6">
         <v>20</v>
@@ -9592,26 +9732,26 @@
       </c>
       <c r="H166"/>
       <c r="I166" t="s" s="6">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="J166" t="s" s="6">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="K166" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L166" t="s" s="6">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="M166" t="n" s="7">
-        <v>42936.752416296295</v>
+        <v>42936.71802328704</v>
       </c>
       <c r="N166"/>
       <c r="O166" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P166" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167">
@@ -9626,7 +9766,7 @@
       </c>
       <c r="D167"/>
       <c r="E167" t="s" s="6">
-        <v>244</v>
+        <v>497</v>
       </c>
       <c r="F167" t="s" s="6">
         <v>20</v>
@@ -9636,43 +9776,41 @@
       </c>
       <c r="H167"/>
       <c r="I167" t="s" s="6">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J167" t="s" s="6">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="K167" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L167" t="s" s="6">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M167" t="n" s="7">
-        <v>42936.69849516204</v>
-      </c>
-      <c r="N167" t="n" s="7">
-        <v>42939.63243957176</v>
-      </c>
+        <v>42936.752416296295</v>
+      </c>
+      <c r="N167"/>
       <c r="O167" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P167" t="s" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="6">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B168" t="s" s="6">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D168"/>
       <c r="E168" t="s" s="6">
-        <v>499</v>
+        <v>244</v>
       </c>
       <c r="F168" t="s" s="6">
         <v>20</v>
@@ -9682,10 +9820,10 @@
       </c>
       <c r="H168"/>
       <c r="I168" t="s" s="6">
-        <v>306</v>
+        <v>101</v>
       </c>
       <c r="J168" t="s" s="6">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="K168" t="s" s="6">
         <v>24</v>
@@ -9694,13 +9832,13 @@
         <v>25</v>
       </c>
       <c r="M168" t="n" s="7">
-        <v>42938.493616747684</v>
+        <v>42936.69849516204</v>
       </c>
       <c r="N168" t="n" s="7">
-        <v>42940.497031527775</v>
+        <v>42939.63243957176</v>
       </c>
       <c r="O168" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P168" t="s" s="6">
         <v>27</v>
@@ -9728,26 +9866,28 @@
       </c>
       <c r="H169"/>
       <c r="I169" t="s" s="6">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="J169" t="s" s="6">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="K169" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L169" t="s" s="6">
-        <v>442</v>
+        <v>25</v>
       </c>
       <c r="M169" t="n" s="7">
-        <v>42937.646215092595</v>
-      </c>
-      <c r="N169"/>
+        <v>42938.493616747684</v>
+      </c>
+      <c r="N169" t="n" s="7">
+        <v>42940.497031527775</v>
+      </c>
       <c r="O169" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P169" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170">
@@ -9762,7 +9902,7 @@
       </c>
       <c r="D170"/>
       <c r="E170" t="s" s="6">
-        <v>31</v>
+        <v>505</v>
       </c>
       <c r="F170" t="s" s="6">
         <v>20</v>
@@ -9772,41 +9912,41 @@
       </c>
       <c r="H170"/>
       <c r="I170" t="s" s="6">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="J170" t="s" s="6">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K170" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L170" t="s" s="6">
-        <v>33</v>
+        <v>445</v>
       </c>
       <c r="M170" t="n" s="7">
-        <v>42938.058004756946</v>
+        <v>42937.646215092595</v>
       </c>
       <c r="N170"/>
       <c r="O170" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P170" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="6">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B171" t="s" s="6">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C171" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D171"/>
       <c r="E171" t="s" s="6">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F171" t="s" s="6">
         <v>20</v>
@@ -9816,34 +9956,36 @@
       </c>
       <c r="H171"/>
       <c r="I171" t="s" s="6">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J171" t="s" s="6">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="K171" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L171" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M171" t="n" s="7">
-        <v>42940.33973518518</v>
-      </c>
-      <c r="N171"/>
+        <v>42938.058004756946</v>
+      </c>
+      <c r="N171" t="n" s="7">
+        <v>42944.458828159724</v>
+      </c>
       <c r="O171" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P171" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="6">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B172" t="s" s="6">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C172" t="s" s="6">
         <v>18</v>
@@ -9869,32 +10011,34 @@
         <v>24</v>
       </c>
       <c r="L172" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M172" t="n" s="7">
-        <v>42940.41623239583</v>
-      </c>
-      <c r="N172"/>
+        <v>42940.33973518518</v>
+      </c>
+      <c r="N172" t="n" s="7">
+        <v>42945.54218009259</v>
+      </c>
       <c r="O172" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P172" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="6">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B173" t="s" s="6">
         <v>509</v>
       </c>
       <c r="C173" t="s" s="6">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="D173"/>
       <c r="E173" t="s" s="6">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="F173" t="s" s="6">
         <v>20</v>
@@ -9904,10 +10048,10 @@
       </c>
       <c r="H173"/>
       <c r="I173" t="s" s="6">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J173" t="s" s="6">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K173" t="s" s="6">
         <v>24</v>
@@ -9916,13 +10060,13 @@
         <v>25</v>
       </c>
       <c r="M173" t="n" s="7">
-        <v>42940.472548645834</v>
+        <v>42940.41623239583</v>
       </c>
       <c r="N173" t="n" s="7">
-        <v>42942.545642349534</v>
+        <v>42945.46575570602</v>
       </c>
       <c r="O173" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P173" t="s" s="6">
         <v>27</v>
@@ -9930,17 +10074,17 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="6">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B174" t="s" s="6">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C174" t="s" s="6">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="D174"/>
       <c r="E174" t="s" s="6">
-        <v>512</v>
+        <v>257</v>
       </c>
       <c r="F174" t="s" s="6">
         <v>20</v>
@@ -9950,10 +10094,10 @@
       </c>
       <c r="H174"/>
       <c r="I174" t="s" s="6">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="J174" t="s" s="6">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K174" t="s" s="6">
         <v>24</v>
@@ -9962,13 +10106,13 @@
         <v>25</v>
       </c>
       <c r="M174" t="n" s="7">
-        <v>42940.49627390046</v>
+        <v>42940.472548645834</v>
       </c>
       <c r="N174" t="n" s="7">
-        <v>42942.500497291665</v>
+        <v>42942.545642349534</v>
       </c>
       <c r="O174" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P174" t="s" s="6">
         <v>27</v>
@@ -9996,10 +10140,10 @@
       </c>
       <c r="H175"/>
       <c r="I175" t="s" s="6">
-        <v>516</v>
+        <v>89</v>
       </c>
       <c r="J175" t="s" s="6">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="K175" t="s" s="6">
         <v>24</v>
@@ -10008,13 +10152,13 @@
         <v>25</v>
       </c>
       <c r="M175" t="n" s="7">
-        <v>42940.51170530092</v>
+        <v>42940.49627390046</v>
       </c>
       <c r="N175" t="n" s="7">
-        <v>42942.576895844904</v>
+        <v>42942.500497291665</v>
       </c>
       <c r="O175" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P175" t="s" s="6">
         <v>27</v>
@@ -10022,17 +10166,17 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="6">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B176" t="s" s="6">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C176" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D176"/>
       <c r="E176" t="s" s="6">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F176" t="s" s="6">
         <v>20</v>
@@ -10042,26 +10186,28 @@
       </c>
       <c r="H176"/>
       <c r="I176" t="s" s="6">
-        <v>153</v>
+        <v>519</v>
       </c>
       <c r="J176" t="s" s="6">
-        <v>115</v>
+        <v>520</v>
       </c>
       <c r="K176" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L176" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M176" t="n" s="7">
-        <v>42940.378746898146</v>
-      </c>
-      <c r="N176"/>
+        <v>42940.51170530092</v>
+      </c>
+      <c r="N176" t="n" s="7">
+        <v>42942.576895844904</v>
+      </c>
       <c r="O176" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P176" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177">
@@ -10076,7 +10222,7 @@
       </c>
       <c r="D177"/>
       <c r="E177" t="s" s="6">
-        <v>251</v>
+        <v>523</v>
       </c>
       <c r="F177" t="s" s="6">
         <v>20</v>
@@ -10086,22 +10232,22 @@
       </c>
       <c r="H177"/>
       <c r="I177" t="s" s="6">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="J177" t="s" s="6">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="K177" t="s" s="6">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="L177" t="s" s="6">
         <v>25</v>
       </c>
       <c r="M177" t="n" s="7">
-        <v>42940.44806699074</v>
+        <v>42940.378746898146</v>
       </c>
       <c r="N177" t="n" s="7">
-        <v>42941.71223443287</v>
+        <v>42946.36502399306</v>
       </c>
       <c r="O177" t="s" s="6">
         <v>26</v>
@@ -10112,17 +10258,17 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="6">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B178" t="s" s="6">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C178" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D178"/>
       <c r="E178" t="s" s="6">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="F178" t="s" s="6">
         <v>20</v>
@@ -10132,22 +10278,22 @@
       </c>
       <c r="H178"/>
       <c r="I178" t="s" s="6">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J178" t="s" s="6">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K178" t="s" s="6">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="L178" t="s" s="6">
         <v>25</v>
       </c>
       <c r="M178" t="n" s="7">
-        <v>42940.45086246528</v>
+        <v>42940.44806699074</v>
       </c>
       <c r="N178" t="n" s="7">
-        <v>42942.511102766206</v>
+        <v>42941.71223443287</v>
       </c>
       <c r="O178" t="s" s="6">
         <v>26</v>
@@ -10158,17 +10304,17 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="6">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B179" t="s" s="6">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C179" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D179"/>
       <c r="E179" t="s" s="6">
-        <v>512</v>
+        <v>314</v>
       </c>
       <c r="F179" t="s" s="6">
         <v>20</v>
@@ -10178,10 +10324,10 @@
       </c>
       <c r="H179"/>
       <c r="I179" t="s" s="6">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="J179" t="s" s="6">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="K179" t="s" s="6">
         <v>24</v>
@@ -10190,13 +10336,13 @@
         <v>25</v>
       </c>
       <c r="M179" t="n" s="7">
-        <v>42940.45835700232</v>
+        <v>42940.45086246528</v>
       </c>
       <c r="N179" t="n" s="7">
-        <v>42942.46227765046</v>
+        <v>42942.511102766206</v>
       </c>
       <c r="O179" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P179" t="s" s="6">
         <v>27</v>
@@ -10204,17 +10350,17 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="6">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B180" t="s" s="6">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D180"/>
       <c r="E180" t="s" s="6">
-        <v>114</v>
+        <v>515</v>
       </c>
       <c r="F180" t="s" s="6">
         <v>20</v>
@@ -10224,129 +10370,131 @@
       </c>
       <c r="H180"/>
       <c r="I180" t="s" s="6">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="J180" t="s" s="6">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="K180" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L180" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M180" t="n" s="7">
-        <v>42940.32635429398</v>
-      </c>
-      <c r="N180"/>
+        <v>42940.45835700232</v>
+      </c>
+      <c r="N180" t="n" s="7">
+        <v>42942.46227765046</v>
+      </c>
       <c r="O180" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P180" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="6">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B181" t="s" s="6">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C181" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D181"/>
       <c r="E181" t="s" s="6">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="F181" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G181" t="s" s="6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H181"/>
-      <c r="I181"/>
+      <c r="I181" t="s" s="6">
+        <v>113</v>
+      </c>
       <c r="J181" t="s" s="6">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="K181" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L181" t="s" s="6">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M181" t="n" s="7">
-        <v>42940.37628646991</v>
-      </c>
-      <c r="N181"/>
+        <v>42940.32635429398</v>
+      </c>
+      <c r="N181" t="n" s="7">
+        <v>42944.545621261575</v>
+      </c>
       <c r="O181" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P181" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="6">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B182" t="s" s="6">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C182" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D182"/>
       <c r="E182" t="s" s="6">
-        <v>478</v>
+        <v>31</v>
       </c>
       <c r="F182" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G182" t="s" s="6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H182"/>
-      <c r="I182" t="s" s="6">
-        <v>114</v>
-      </c>
+      <c r="I182"/>
       <c r="J182" t="s" s="6">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="K182" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L182" t="s" s="6">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M182" t="n" s="7">
-        <v>42940.383817905094</v>
-      </c>
-      <c r="N182" t="n" s="7">
-        <v>42942.57342385417</v>
-      </c>
+        <v>42940.37628646991</v>
+      </c>
+      <c r="N182"/>
       <c r="O182" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P182" t="s" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="6">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B183" t="s" s="6">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C183" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D183"/>
       <c r="E183" t="s" s="6">
-        <v>535</v>
+        <v>481</v>
       </c>
       <c r="F183" t="s" s="6">
         <v>20</v>
@@ -10356,10 +10504,10 @@
       </c>
       <c r="H183"/>
       <c r="I183" t="s" s="6">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="J183" t="s" s="6">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K183" t="s" s="6">
         <v>24</v>
@@ -10368,10 +10516,10 @@
         <v>25</v>
       </c>
       <c r="M183" t="n" s="7">
-        <v>42940.385390625</v>
+        <v>42940.383817905094</v>
       </c>
       <c r="N183" t="n" s="7">
-        <v>42943.40327474537</v>
+        <v>42942.57342385417</v>
       </c>
       <c r="O183" t="s" s="6">
         <v>26</v>
@@ -10388,11 +10536,11 @@
         <v>537</v>
       </c>
       <c r="C184" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D184"/>
       <c r="E184" t="s" s="6">
-        <v>31</v>
+        <v>538</v>
       </c>
       <c r="F184" t="s" s="6">
         <v>20</v>
@@ -10402,41 +10550,43 @@
       </c>
       <c r="H184"/>
       <c r="I184" t="s" s="6">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="J184" t="s" s="6">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="K184" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L184" t="s" s="6">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M184" t="n" s="7">
-        <v>42940.38647884259</v>
-      </c>
-      <c r="N184"/>
+        <v>42940.385390625</v>
+      </c>
+      <c r="N184" t="n" s="7">
+        <v>42943.40327474537</v>
+      </c>
       <c r="O184" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P184" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="6">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B185" t="s" s="6">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C185" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D185"/>
       <c r="E185" t="s" s="6">
-        <v>512</v>
+        <v>31</v>
       </c>
       <c r="F185" t="s" s="6">
         <v>20</v>
@@ -10446,43 +10596,41 @@
       </c>
       <c r="H185"/>
       <c r="I185" t="s" s="6">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="J185" t="s" s="6">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="K185" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L185" t="s" s="6">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M185" t="n" s="7">
-        <v>42940.47710369213</v>
-      </c>
-      <c r="N185" t="n" s="7">
-        <v>42943.58033881945</v>
-      </c>
+        <v>42940.38647884259</v>
+      </c>
+      <c r="N185"/>
       <c r="O185" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P185" t="s" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="6">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B186" t="s" s="6">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C186" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D186"/>
       <c r="E186" t="s" s="6">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F186" t="s" s="6">
         <v>20</v>
@@ -10492,11 +10640,11 @@
       </c>
       <c r="H186"/>
       <c r="I186" t="s" s="6">
+        <v>89</v>
+      </c>
+      <c r="J186" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="J186" t="s" s="6">
-        <v>80</v>
-      </c>
       <c r="K186" t="s" s="6">
         <v>24</v>
       </c>
@@ -10504,10 +10652,10 @@
         <v>25</v>
       </c>
       <c r="M186" t="n" s="7">
-        <v>42940.68207627315</v>
+        <v>42940.47710369213</v>
       </c>
       <c r="N186" t="n" s="7">
-        <v>42943.38935268518</v>
+        <v>42943.58033881945</v>
       </c>
       <c r="O186" t="s" s="6">
         <v>26</v>
@@ -10518,17 +10666,17 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="6">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B187" t="s" s="6">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C187" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D187"/>
       <c r="E187" t="s" s="6">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="F187" t="s" s="6">
         <v>20</v>
@@ -10538,10 +10686,10 @@
       </c>
       <c r="H187"/>
       <c r="I187" t="s" s="6">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="J187" t="s" s="6">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="K187" t="s" s="6">
         <v>24</v>
@@ -10550,10 +10698,10 @@
         <v>25</v>
       </c>
       <c r="M187" t="n" s="7">
-        <v>42940.70959215278</v>
+        <v>42940.68207627315</v>
       </c>
       <c r="N187" t="n" s="7">
-        <v>42942.712448321756</v>
+        <v>42943.38935268518</v>
       </c>
       <c r="O187" t="s" s="6">
         <v>26</v>
@@ -10570,7 +10718,7 @@
         <v>546</v>
       </c>
       <c r="C188" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D188"/>
       <c r="E188" t="s" s="6">
@@ -10584,25 +10732,25 @@
       </c>
       <c r="H188"/>
       <c r="I188" t="s" s="6">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="J188" t="s" s="6">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K188" t="s" s="6">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="L188" t="s" s="6">
         <v>25</v>
       </c>
       <c r="M188" t="n" s="7">
-        <v>42940.593626875</v>
+        <v>42940.70959215278</v>
       </c>
       <c r="N188" t="n" s="7">
-        <v>42940.6152928588</v>
+        <v>42942.712448321756</v>
       </c>
       <c r="O188" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P188" t="s" s="6">
         <v>27</v>
@@ -10616,7 +10764,7 @@
         <v>549</v>
       </c>
       <c r="C189" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D189"/>
       <c r="E189" t="s" s="6">
@@ -10630,25 +10778,25 @@
       </c>
       <c r="H189"/>
       <c r="I189" t="s" s="6">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J189" t="s" s="6">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K189" t="s" s="6">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="L189" t="s" s="6">
         <v>25</v>
       </c>
       <c r="M189" t="n" s="7">
-        <v>42940.64468239583</v>
+        <v>42940.593626875</v>
       </c>
       <c r="N189" t="n" s="7">
-        <v>42944.244269236115</v>
+        <v>42940.6152928588</v>
       </c>
       <c r="O189" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P189" t="s" s="6">
         <v>27</v>
@@ -10676,26 +10824,28 @@
       </c>
       <c r="H190"/>
       <c r="I190" t="s" s="6">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="J190" t="s" s="6">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="K190" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L190" t="s" s="6">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M190" t="n" s="7">
-        <v>42941.35842064815</v>
-      </c>
-      <c r="N190"/>
+        <v>42940.64468239583</v>
+      </c>
+      <c r="N190" t="n" s="7">
+        <v>42944.244269236115</v>
+      </c>
       <c r="O190" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P190" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="191">
@@ -10710,7 +10860,7 @@
       </c>
       <c r="D191"/>
       <c r="E191" t="s" s="6">
-        <v>123</v>
+        <v>556</v>
       </c>
       <c r="F191" t="s" s="6">
         <v>20</v>
@@ -10720,36 +10870,34 @@
       </c>
       <c r="H191"/>
       <c r="I191" t="s" s="6">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="J191" t="s" s="6">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="K191" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L191" t="s" s="6">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M191" t="n" s="7">
-        <v>42941.44585729167</v>
-      </c>
-      <c r="N191" t="n" s="7">
-        <v>42944.28865471065</v>
-      </c>
+        <v>42941.35842064815</v>
+      </c>
+      <c r="N191"/>
       <c r="O191" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P191" t="s" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="6">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B192" t="s" s="6">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C192" t="s" s="6">
         <v>18</v>
@@ -10766,10 +10914,10 @@
       </c>
       <c r="H192"/>
       <c r="I192" t="s" s="6">
-        <v>558</v>
+        <v>49</v>
       </c>
       <c r="J192" t="s" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K192" t="s" s="6">
         <v>24</v>
@@ -10778,10 +10926,10 @@
         <v>25</v>
       </c>
       <c r="M192" t="n" s="7">
-        <v>42941.44913667824</v>
+        <v>42941.44585729167</v>
       </c>
       <c r="N192" t="n" s="7">
-        <v>42943.57340070602</v>
+        <v>42944.28865471065</v>
       </c>
       <c r="O192" t="s" s="6">
         <v>26</v>
@@ -10802,7 +10950,7 @@
       </c>
       <c r="D193"/>
       <c r="E193" t="s" s="6">
-        <v>561</v>
+        <v>123</v>
       </c>
       <c r="F193" t="s" s="6">
         <v>20</v>
@@ -10812,11 +10960,11 @@
       </c>
       <c r="H193"/>
       <c r="I193" t="s" s="6">
+        <v>561</v>
+      </c>
+      <c r="J193" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="J193" t="s" s="6">
-        <v>51</v>
-      </c>
       <c r="K193" t="s" s="6">
         <v>24</v>
       </c>
@@ -10824,10 +10972,10 @@
         <v>25</v>
       </c>
       <c r="M193" t="n" s="7">
-        <v>42940.642067280096</v>
+        <v>42941.44913667824</v>
       </c>
       <c r="N193" t="n" s="7">
-        <v>42944.24155234954</v>
+        <v>42943.57340070602</v>
       </c>
       <c r="O193" t="s" s="6">
         <v>26</v>
@@ -10858,10 +11006,10 @@
       </c>
       <c r="H194"/>
       <c r="I194" t="s" s="6">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J194" t="s" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K194" t="s" s="6">
         <v>24</v>
@@ -10870,13 +11018,13 @@
         <v>25</v>
       </c>
       <c r="M194" t="n" s="7">
-        <v>42940.665988657405</v>
+        <v>42940.642067280096</v>
       </c>
       <c r="N194" t="n" s="7">
-        <v>42942.691505636576</v>
+        <v>42944.24155234954</v>
       </c>
       <c r="O194" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P194" t="s" s="6">
         <v>27</v>
@@ -10900,28 +11048,32 @@
         <v>20</v>
       </c>
       <c r="G195" t="s" s="6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H195"/>
-      <c r="I195"/>
+      <c r="I195" t="s" s="6">
+        <v>78</v>
+      </c>
       <c r="J195" t="s" s="6">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="K195" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L195" t="s" s="6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M195" t="n" s="7">
-        <v>42940.67532746528</v>
-      </c>
-      <c r="N195"/>
+        <v>42940.665988657405</v>
+      </c>
+      <c r="N195" t="n" s="7">
+        <v>42942.691505636576</v>
+      </c>
       <c r="O195" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P195" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="196">
@@ -10936,53 +11088,49 @@
       </c>
       <c r="D196"/>
       <c r="E196" t="s" s="6">
-        <v>123</v>
+        <v>570</v>
       </c>
       <c r="F196" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G196" t="s" s="6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H196"/>
-      <c r="I196" t="s" s="6">
-        <v>50</v>
-      </c>
+      <c r="I196"/>
       <c r="J196" t="s" s="6">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K196" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L196" t="s" s="6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M196" t="n" s="7">
-        <v>42941.439456238426</v>
-      </c>
-      <c r="N196" t="n" s="7">
-        <v>42944.246996539354</v>
-      </c>
+        <v>42940.67532746528</v>
+      </c>
+      <c r="N196"/>
       <c r="O196" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P196" t="s" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="6">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B197" t="s" s="6">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C197" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D197"/>
       <c r="E197" t="s" s="6">
-        <v>572</v>
+        <v>123</v>
       </c>
       <c r="F197" t="s" s="6">
         <v>20</v>
@@ -10992,10 +11140,10 @@
       </c>
       <c r="H197"/>
       <c r="I197" t="s" s="6">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="J197" t="s" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K197" t="s" s="6">
         <v>24</v>
@@ -11004,10 +11152,10 @@
         <v>25</v>
       </c>
       <c r="M197" t="n" s="7">
-        <v>42941.47830398148</v>
+        <v>42941.439456238426</v>
       </c>
       <c r="N197" t="n" s="7">
-        <v>42943.65675582176</v>
+        <v>42944.246996539354</v>
       </c>
       <c r="O197" t="s" s="6">
         <v>26</v>
@@ -11024,11 +11172,11 @@
         <v>574</v>
       </c>
       <c r="C198" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D198"/>
       <c r="E198" t="s" s="6">
-        <v>275</v>
+        <v>575</v>
       </c>
       <c r="F198" t="s" s="6">
         <v>20</v>
@@ -11038,41 +11186,43 @@
       </c>
       <c r="H198"/>
       <c r="I198" t="s" s="6">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="J198" t="s" s="6">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="K198" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L198" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M198" t="n" s="7">
-        <v>42941.491340023145</v>
-      </c>
-      <c r="N198"/>
+        <v>42941.47830398148</v>
+      </c>
+      <c r="N198" t="n" s="7">
+        <v>42943.65675582176</v>
+      </c>
       <c r="O198" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P198" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="6">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B199" t="s" s="6">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C199" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D199"/>
       <c r="E199" t="s" s="6">
-        <v>137</v>
+        <v>275</v>
       </c>
       <c r="F199" t="s" s="6">
         <v>20</v>
@@ -11082,41 +11232,43 @@
       </c>
       <c r="H199"/>
       <c r="I199" t="s" s="6">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="J199" t="s" s="6">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="K199" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L199" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M199" t="n" s="7">
-        <v>42941.50646363426</v>
-      </c>
-      <c r="N199"/>
+        <v>42941.491340023145</v>
+      </c>
+      <c r="N199" t="n" s="7">
+        <v>42946.21921296296</v>
+      </c>
       <c r="O199" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P199" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="6">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B200" t="s" s="6">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C200" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D200"/>
       <c r="E200" t="s" s="6">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F200" t="s" s="6">
         <v>20</v>
@@ -11126,10 +11278,10 @@
       </c>
       <c r="H200"/>
       <c r="I200" t="s" s="6">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="J200" t="s" s="6">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K200" t="s" s="6">
         <v>24</v>
@@ -11138,10 +11290,10 @@
         <v>25</v>
       </c>
       <c r="M200" t="n" s="7">
-        <v>42941.44781550926</v>
+        <v>42941.50646363426</v>
       </c>
       <c r="N200" t="n" s="7">
-        <v>42944.28521164352</v>
+        <v>42944.722844537035</v>
       </c>
       <c r="O200" t="s" s="6">
         <v>26</v>
@@ -11152,10 +11304,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="6">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B201" t="s" s="6">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C201" t="s" s="6">
         <v>18</v>
@@ -11172,11 +11324,11 @@
       </c>
       <c r="H201"/>
       <c r="I201" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J201" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="J201" t="s" s="6">
-        <v>51</v>
-      </c>
       <c r="K201" t="s" s="6">
         <v>24</v>
       </c>
@@ -11184,10 +11336,10 @@
         <v>25</v>
       </c>
       <c r="M201" t="n" s="7">
-        <v>42941.45094785879</v>
+        <v>42941.44781550926</v>
       </c>
       <c r="N201" t="n" s="7">
-        <v>42944.28864403935</v>
+        <v>42944.28521164352</v>
       </c>
       <c r="O201" t="s" s="6">
         <v>26</v>
@@ -11198,17 +11350,17 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="6">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B202" t="s" s="6">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C202" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D202"/>
       <c r="E202" t="s" s="6">
-        <v>583</v>
+        <v>123</v>
       </c>
       <c r="F202" t="s" s="6">
         <v>20</v>
@@ -11218,11 +11370,11 @@
       </c>
       <c r="H202"/>
       <c r="I202" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="J202" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="J202" t="s" s="6">
-        <v>51</v>
-      </c>
       <c r="K202" t="s" s="6">
         <v>24</v>
       </c>
@@ -11230,10 +11382,10 @@
         <v>25</v>
       </c>
       <c r="M202" t="n" s="7">
-        <v>42941.477992789354</v>
+        <v>42941.45094785879</v>
       </c>
       <c r="N202" t="n" s="7">
-        <v>42944.29230693287</v>
+        <v>42944.28864403935</v>
       </c>
       <c r="O202" t="s" s="6">
         <v>26</v>
@@ -11254,7 +11406,7 @@
       </c>
       <c r="D203"/>
       <c r="E203" t="s" s="6">
-        <v>330</v>
+        <v>586</v>
       </c>
       <c r="F203" t="s" s="6">
         <v>20</v>
@@ -11264,41 +11416,43 @@
       </c>
       <c r="H203"/>
       <c r="I203" t="s" s="6">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="J203" t="s" s="6">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="K203" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L203" t="s" s="6">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M203" t="n" s="7">
-        <v>42941.50201358796</v>
-      </c>
-      <c r="N203"/>
+        <v>42941.477992789354</v>
+      </c>
+      <c r="N203" t="n" s="7">
+        <v>42944.29230693287</v>
+      </c>
       <c r="O203" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P203" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="6">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B204" t="s" s="6">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C204" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D204"/>
       <c r="E204" t="s" s="6">
-        <v>588</v>
+        <v>330</v>
       </c>
       <c r="F204" t="s" s="6">
         <v>20</v>
@@ -11308,26 +11462,26 @@
       </c>
       <c r="H204"/>
       <c r="I204" t="s" s="6">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="J204" t="s" s="6">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="K204" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L204" t="s" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M204" t="n" s="7">
-        <v>42941.52252789352</v>
+        <v>42941.50201358796</v>
       </c>
       <c r="N204"/>
       <c r="O204" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P204" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205">
@@ -11342,7 +11496,7 @@
       </c>
       <c r="D205"/>
       <c r="E205" t="s" s="6">
-        <v>180</v>
+        <v>591</v>
       </c>
       <c r="F205" t="s" s="6">
         <v>20</v>
@@ -11352,43 +11506,41 @@
       </c>
       <c r="H205"/>
       <c r="I205" t="s" s="6">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="J205" t="s" s="6">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="K205" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L205" t="s" s="6">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M205" t="n" s="7">
-        <v>42941.58613792824</v>
-      </c>
-      <c r="N205" t="n" s="7">
-        <v>42943.63245572917</v>
-      </c>
+        <v>42941.52252789352</v>
+      </c>
+      <c r="N205"/>
       <c r="O205" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P205" t="s" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="6">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B206" t="s" s="6">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C206" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D206"/>
       <c r="E206" t="s" s="6">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="F206" t="s" s="6">
         <v>20</v>
@@ -11398,11 +11550,11 @@
       </c>
       <c r="H206"/>
       <c r="I206" t="s" s="6">
+        <v>306</v>
+      </c>
+      <c r="J206" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="J206" t="s" s="6">
-        <v>80</v>
-      </c>
       <c r="K206" t="s" s="6">
         <v>24</v>
       </c>
@@ -11410,10 +11562,10 @@
         <v>25</v>
       </c>
       <c r="M206" t="n" s="7">
-        <v>42941.670138622685</v>
+        <v>42941.58613792824</v>
       </c>
       <c r="N206" t="n" s="7">
-        <v>42943.688032743055</v>
+        <v>42943.63245572917</v>
       </c>
       <c r="O206" t="s" s="6">
         <v>26</v>
@@ -11424,17 +11576,17 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="6">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B207" t="s" s="6">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C207" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D207"/>
       <c r="E207" t="s" s="6">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="F207" t="s" s="6">
         <v>20</v>
@@ -11444,41 +11596,43 @@
       </c>
       <c r="H207"/>
       <c r="I207" t="s" s="6">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="J207" t="s" s="6">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="K207" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L207" t="s" s="6">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M207" t="n" s="7">
-        <v>42941.710529675925</v>
-      </c>
-      <c r="N207"/>
+        <v>42941.670138622685</v>
+      </c>
+      <c r="N207" t="n" s="7">
+        <v>42943.688032743055</v>
+      </c>
       <c r="O207" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P207" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="6">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B208" t="s" s="6">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C208" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D208"/>
       <c r="E208" t="s" s="6">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="F208" t="s" s="6">
         <v>20</v>
@@ -11488,43 +11642,41 @@
       </c>
       <c r="H208"/>
       <c r="I208" t="s" s="6">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="J208" t="s" s="6">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="K208" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L208" t="s" s="6">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M208" t="n" s="7">
-        <v>42941.45775833333</v>
-      </c>
-      <c r="N208" t="n" s="7">
-        <v>42943.46226208333</v>
-      </c>
+        <v>42941.710529675925</v>
+      </c>
+      <c r="N208"/>
       <c r="O208" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P208" t="s" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="6">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B209" t="s" s="6">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C209" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D209"/>
       <c r="E209" t="s" s="6">
-        <v>599</v>
+        <v>502</v>
       </c>
       <c r="F209" t="s" s="6">
         <v>20</v>
@@ -11534,11 +11686,11 @@
       </c>
       <c r="H209"/>
       <c r="I209" t="s" s="6">
+        <v>89</v>
+      </c>
+      <c r="J209" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="J209" t="s" s="6">
-        <v>80</v>
-      </c>
       <c r="K209" t="s" s="6">
         <v>24</v>
       </c>
@@ -11546,13 +11698,13 @@
         <v>25</v>
       </c>
       <c r="M209" t="n" s="7">
-        <v>42941.47560037037</v>
+        <v>42941.45775833333</v>
       </c>
       <c r="N209" t="n" s="7">
-        <v>42943.68451828704</v>
+        <v>42943.46226208333</v>
       </c>
       <c r="O209" t="s" s="6">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="P209" t="s" s="6">
         <v>27</v>
@@ -11580,26 +11732,28 @@
       </c>
       <c r="H210"/>
       <c r="I210" t="s" s="6">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J210" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K210" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L210" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M210" t="n" s="7">
-        <v>42941.66574332176</v>
-      </c>
-      <c r="N210"/>
+        <v>42941.47560037037</v>
+      </c>
+      <c r="N210" t="n" s="7">
+        <v>42943.68451828704</v>
+      </c>
       <c r="O210" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P210" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211">
@@ -11610,11 +11764,11 @@
         <v>604</v>
       </c>
       <c r="C211" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D211"/>
       <c r="E211" t="s" s="6">
-        <v>465</v>
+        <v>605</v>
       </c>
       <c r="F211" t="s" s="6">
         <v>20</v>
@@ -11624,41 +11778,43 @@
       </c>
       <c r="H211"/>
       <c r="I211" t="s" s="6">
-        <v>306</v>
+        <v>89</v>
       </c>
       <c r="J211" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K211" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L211" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M211" t="n" s="7">
-        <v>42941.621582280095</v>
-      </c>
-      <c r="N211"/>
+        <v>42941.66574332176</v>
+      </c>
+      <c r="N211" t="n" s="7">
+        <v>42944.54912185185</v>
+      </c>
       <c r="O211" t="s" s="6">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P211" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="6">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B212" t="s" s="6">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C212" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D212"/>
       <c r="E212" t="s" s="6">
-        <v>544</v>
+        <v>468</v>
       </c>
       <c r="F212" t="s" s="6">
         <v>20</v>
@@ -11668,10 +11824,10 @@
       </c>
       <c r="H212"/>
       <c r="I212" t="s" s="6">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="J212" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K212" t="s" s="6">
         <v>24</v>
@@ -11680,13 +11836,13 @@
         <v>25</v>
       </c>
       <c r="M212" t="n" s="7">
-        <v>42941.65564240741</v>
+        <v>42941.621582280095</v>
       </c>
       <c r="N212" t="n" s="7">
-        <v>42943.65676636574</v>
+        <v>42945.38933508102</v>
       </c>
       <c r="O212" t="s" s="6">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="P212" t="s" s="6">
         <v>27</v>
@@ -11694,17 +11850,17 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="6">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B213" t="s" s="6">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C213" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D213"/>
       <c r="E213" t="s" s="6">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="F213" t="s" s="6">
         <v>20</v>
@@ -11714,26 +11870,28 @@
       </c>
       <c r="H213"/>
       <c r="I213" t="s" s="6">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="J213" t="s" s="6">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K213" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L213" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M213" t="n" s="7">
-        <v>42942.6002809375</v>
-      </c>
-      <c r="N213"/>
+        <v>42941.65564240741</v>
+      </c>
+      <c r="N213" t="n" s="7">
+        <v>42943.65676636574</v>
+      </c>
       <c r="O213" t="s" s="6">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P213" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214">
@@ -11744,11 +11902,11 @@
         <v>611</v>
       </c>
       <c r="C214" t="s" s="6">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D214"/>
       <c r="E214" t="s" s="6">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="F214" t="s" s="6">
         <v>20</v>
@@ -11758,68 +11916,74 @@
       </c>
       <c r="H214"/>
       <c r="I214" t="s" s="6">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="J214" t="s" s="6">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K214" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L214" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M214" t="n" s="7">
-        <v>42942.480462534724</v>
-      </c>
-      <c r="N214"/>
+        <v>42942.6002809375</v>
+      </c>
+      <c r="N214" t="n" s="7">
+        <v>42944.60464824074</v>
+      </c>
       <c r="O214" t="s" s="6">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P214" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="6">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B215" t="s" s="6">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C215" t="s" s="6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D215"/>
       <c r="E215" t="s" s="6">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="F215" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G215" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H215"/>
+      <c r="I215" t="s" s="6">
+        <v>89</v>
+      </c>
+      <c r="J215" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K215" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L215" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="M215" t="n" s="7">
+        <v>42942.480462534724</v>
+      </c>
+      <c r="N215" t="n" s="7">
+        <v>42944.58736538194</v>
+      </c>
+      <c r="O215" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="H215"/>
-      <c r="I215"/>
-      <c r="J215" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="K215" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="L215" t="s" s="6">
-        <v>98</v>
-      </c>
-      <c r="M215" t="n" s="7">
-        <v>42942.57835175926</v>
-      </c>
-      <c r="N215"/>
-      <c r="O215" t="s" s="6">
-        <v>57</v>
-      </c>
       <c r="P215" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216">
@@ -11840,10 +12004,12 @@
         <v>20</v>
       </c>
       <c r="G216" t="s" s="6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H216"/>
-      <c r="I216"/>
+      <c r="I216" t="s" s="6">
+        <v>275</v>
+      </c>
       <c r="J216" t="s" s="6">
         <v>32</v>
       </c>
@@ -11851,17 +12017,17 @@
         <v>24</v>
       </c>
       <c r="L216" t="s" s="6">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="M216" t="n" s="7">
-        <v>42942.491603333336</v>
+        <v>42942.57835175926</v>
       </c>
       <c r="N216"/>
       <c r="O216" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P216" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217">
@@ -11882,7 +12048,7 @@
         <v>20</v>
       </c>
       <c r="G217" t="s" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H217"/>
       <c r="I217"/>
@@ -11893,17 +12059,17 @@
         <v>24</v>
       </c>
       <c r="L217" t="s" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M217" t="n" s="7">
-        <v>42942.49326195602</v>
+        <v>42942.491603333336</v>
       </c>
       <c r="N217"/>
       <c r="O217" t="s" s="6">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="P217" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218">
@@ -11918,51 +12084,49 @@
       </c>
       <c r="D218"/>
       <c r="E218" t="s" s="6">
-        <v>180</v>
+        <v>623</v>
       </c>
       <c r="F218" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G218" t="s" s="6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H218"/>
-      <c r="I218" t="s" s="6">
-        <v>306</v>
-      </c>
+      <c r="I218"/>
       <c r="J218" t="s" s="6">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="K218" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L218" t="s" s="6">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="M218" t="n" s="7">
-        <v>42942.62098292824</v>
+        <v>42942.49326195602</v>
       </c>
       <c r="N218"/>
       <c r="O218" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P218" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="6">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B219" t="s" s="6">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C219" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D219"/>
       <c r="E219" t="s" s="6">
-        <v>625</v>
+        <v>143</v>
       </c>
       <c r="F219" t="s" s="6">
         <v>20</v>
@@ -11972,41 +12136,43 @@
       </c>
       <c r="H219"/>
       <c r="I219" t="s" s="6">
-        <v>626</v>
+        <v>275</v>
       </c>
       <c r="J219" t="s" s="6">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="K219" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L219" t="s" s="6">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M219" t="n" s="7">
-        <v>42942.731203993055</v>
-      </c>
-      <c r="N219"/>
+        <v>42942.52407478009</v>
+      </c>
+      <c r="N219" t="n" s="7">
+        <v>42946.45185077546</v>
+      </c>
       <c r="O219" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P219" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="6">
+        <v>626</v>
+      </c>
+      <c r="B220" t="s" s="6">
         <v>627</v>
-      </c>
-      <c r="B220" t="s" s="6">
-        <v>628</v>
       </c>
       <c r="C220" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D220"/>
       <c r="E220" t="s" s="6">
-        <v>629</v>
+        <v>180</v>
       </c>
       <c r="F220" t="s" s="6">
         <v>20</v>
@@ -12016,110 +12182,118 @@
       </c>
       <c r="H220"/>
       <c r="I220" t="s" s="6">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c r="J220" t="s" s="6">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="K220" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L220" t="s" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M220" t="n" s="7">
-        <v>42943.4047281713</v>
-      </c>
-      <c r="N220"/>
+        <v>42942.62098292824</v>
+      </c>
+      <c r="N220" t="n" s="7">
+        <v>42945.38586101852</v>
+      </c>
       <c r="O220" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P220" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="6">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B221" t="s" s="6">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C221" t="s" s="6">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="D221"/>
       <c r="E221" t="s" s="6">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F221" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G221" t="s" s="6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H221"/>
-      <c r="I221"/>
+      <c r="I221" t="s" s="6">
+        <v>631</v>
+      </c>
       <c r="J221" t="s" s="6">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="K221" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L221" t="s" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M221" t="n" s="7">
-        <v>42943.48882951389</v>
+        <v>42942.731203993055</v>
       </c>
       <c r="N221"/>
       <c r="O221" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P221" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="6">
+        <v>632</v>
+      </c>
+      <c r="B222" t="s" s="6">
         <v>633</v>
-      </c>
-      <c r="B222" t="s" s="6">
-        <v>634</v>
       </c>
       <c r="C222" t="s" s="6">
         <v>18</v>
       </c>
       <c r="D222"/>
       <c r="E222" t="s" s="6">
-        <v>544</v>
+        <v>634</v>
       </c>
       <c r="F222" t="s" s="6">
         <v>20</v>
       </c>
       <c r="G222" t="s" s="6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H222"/>
-      <c r="I222"/>
+      <c r="I222" t="s" s="6">
+        <v>49</v>
+      </c>
       <c r="J222" t="s" s="6">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K222" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L222" t="s" s="6">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M222" t="n" s="7">
-        <v>42943.46085280093</v>
-      </c>
-      <c r="N222"/>
+        <v>42943.4047281713</v>
+      </c>
+      <c r="N222" t="n" s="7">
+        <v>42946.22614737268</v>
+      </c>
       <c r="O222" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P222" t="s" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223">
@@ -12134,7 +12308,7 @@
       </c>
       <c r="D223"/>
       <c r="E223" t="s" s="6">
-        <v>303</v>
+        <v>547</v>
       </c>
       <c r="F223" t="s" s="6">
         <v>20</v>
@@ -12144,26 +12318,26 @@
       </c>
       <c r="H223"/>
       <c r="I223" t="s" s="6">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="J223" t="s" s="6">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="K223" t="s" s="6">
         <v>24</v>
       </c>
       <c r="L223" t="s" s="6">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M223" t="n" s="7">
-        <v>42943.55436637731</v>
+        <v>42943.44300207176</v>
       </c>
       <c r="N223"/>
       <c r="O223" t="s" s="6">
         <v>26</v>
       </c>
       <c r="P223" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224">
@@ -12174,11 +12348,11 @@
         <v>638</v>
       </c>
       <c r="C224" t="s" s="6">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="D224"/>
       <c r="E224" t="s" s="6">
-        <v>257</v>
+        <v>639</v>
       </c>
       <c r="F224" t="s" s="6">
         <v>20</v>
@@ -12188,30 +12362,788 @@
       </c>
       <c r="H224"/>
       <c r="I224" t="s" s="6">
+        <v>101</v>
+      </c>
+      <c r="J224" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="K224" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="L224" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="M224" t="n" s="7">
+        <v>42943.45755769676</v>
+      </c>
+      <c r="N224" t="n" s="7">
+        <v>42944.63783616898</v>
+      </c>
+      <c r="O224" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P224" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="6">
+        <v>640</v>
+      </c>
+      <c r="B225" t="s" s="6">
+        <v>641</v>
+      </c>
+      <c r="C225" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="D225"/>
+      <c r="E225" t="s" s="6">
+        <v>642</v>
+      </c>
+      <c r="F225" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G225" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H225"/>
+      <c r="I225" t="s" s="6">
+        <v>275</v>
+      </c>
+      <c r="J225" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="K225" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L225" t="s" s="6">
+        <v>445</v>
+      </c>
+      <c r="M225" t="n" s="7">
+        <v>42943.48882951389</v>
+      </c>
+      <c r="N225"/>
+      <c r="O225" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="P225" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="6">
+        <v>643</v>
+      </c>
+      <c r="B226" t="s" s="6">
+        <v>644</v>
+      </c>
+      <c r="C226" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D226"/>
+      <c r="E226" t="s" s="6">
+        <v>547</v>
+      </c>
+      <c r="F226" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G226" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H226"/>
+      <c r="I226" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="J226" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="K226" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L226" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="M226" t="n" s="7">
+        <v>42943.46085280093</v>
+      </c>
+      <c r="N226"/>
+      <c r="O226" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P226" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="6">
+        <v>645</v>
+      </c>
+      <c r="B227" t="s" s="6">
+        <v>646</v>
+      </c>
+      <c r="C227" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D227"/>
+      <c r="E227" t="s" s="6">
+        <v>647</v>
+      </c>
+      <c r="F227" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G227" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H227"/>
+      <c r="I227" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="J227" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="K227" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L227" t="s" s="6">
+        <v>115</v>
+      </c>
+      <c r="M227" t="n" s="7">
+        <v>42943.57691998842</v>
+      </c>
+      <c r="N227"/>
+      <c r="O227" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P227" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="6">
+        <v>648</v>
+      </c>
+      <c r="B228" t="s" s="6">
+        <v>649</v>
+      </c>
+      <c r="C228" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D228"/>
+      <c r="E228" t="s" s="6">
+        <v>303</v>
+      </c>
+      <c r="F228" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G228" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H228"/>
+      <c r="I228" t="s" s="6">
+        <v>124</v>
+      </c>
+      <c r="J228" t="s" s="6">
+        <v>96</v>
+      </c>
+      <c r="K228" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L228" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="M228" t="n" s="7">
+        <v>42943.55436637731</v>
+      </c>
+      <c r="N228" t="n" s="7">
+        <v>42945.59770377315</v>
+      </c>
+      <c r="O228" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P228" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="6">
+        <v>650</v>
+      </c>
+      <c r="B229" t="s" s="6">
+        <v>651</v>
+      </c>
+      <c r="C229" t="s" s="6">
+        <v>256</v>
+      </c>
+      <c r="D229"/>
+      <c r="E229" t="s" s="6">
+        <v>257</v>
+      </c>
+      <c r="F229" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H229"/>
+      <c r="I229" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="J224" t="s" s="6">
+      <c r="J229" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="K224" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="L224" t="s" s="6">
-        <v>98</v>
-      </c>
-      <c r="M224" t="n" s="7">
+      <c r="K229" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L229" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="M229" t="n" s="7">
         <v>42943.5900155787</v>
       </c>
-      <c r="N224"/>
-      <c r="O224" t="s" s="6">
-        <v>57</v>
-      </c>
-      <c r="P224" t="s" s="6">
-        <v>34</v>
+      <c r="N229"/>
+      <c r="O229" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="P229" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="6">
+        <v>652</v>
+      </c>
+      <c r="B230" t="s" s="6">
+        <v>653</v>
+      </c>
+      <c r="C230" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D230"/>
+      <c r="E230" t="s" s="6">
+        <v>149</v>
+      </c>
+      <c r="F230" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G230" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H230"/>
+      <c r="I230" t="s" s="6">
+        <v>153</v>
+      </c>
+      <c r="J230" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="K230" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L230" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="M230" t="n" s="7">
+        <v>42943.71504658565</v>
+      </c>
+      <c r="N230" t="n" s="7">
+        <v>42946.8234684375</v>
+      </c>
+      <c r="O230" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P230" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="6">
+        <v>654</v>
+      </c>
+      <c r="B231" t="s" s="6">
+        <v>655</v>
+      </c>
+      <c r="C231" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D231"/>
+      <c r="E231" t="s" s="6">
+        <v>656</v>
+      </c>
+      <c r="F231" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G231" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H231"/>
+      <c r="I231" t="s" s="6">
+        <v>89</v>
+      </c>
+      <c r="J231" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K231" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L231" t="s" s="6">
+        <v>445</v>
+      </c>
+      <c r="M231" t="n" s="7">
+        <v>42944.4356421412</v>
+      </c>
+      <c r="N231"/>
+      <c r="O231" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="P231" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="6">
+        <v>657</v>
+      </c>
+      <c r="B232" t="s" s="6">
+        <v>658</v>
+      </c>
+      <c r="C232" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="D232"/>
+      <c r="E232" t="s" s="6">
+        <v>659</v>
+      </c>
+      <c r="F232" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G232" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H232"/>
+      <c r="I232" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="J232" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="K232" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L232" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="M232" t="n" s="7">
+        <v>42944.48288025463</v>
+      </c>
+      <c r="N232"/>
+      <c r="O232" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="P232" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="6">
+        <v>660</v>
+      </c>
+      <c r="B233" t="s" s="6">
+        <v>661</v>
+      </c>
+      <c r="C233" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="D233"/>
+      <c r="E233" t="s" s="6">
+        <v>251</v>
+      </c>
+      <c r="F233" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G233" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="H233"/>
+      <c r="I233"/>
+      <c r="J233" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="K233" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L233" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="M233" t="n" s="7">
+        <v>42944.52507568287</v>
+      </c>
+      <c r="N233"/>
+      <c r="O233" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="P233" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="6">
+        <v>662</v>
+      </c>
+      <c r="B234" t="s" s="6">
+        <v>663</v>
+      </c>
+      <c r="C234" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D234"/>
+      <c r="E234" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="F234" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G234" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H234"/>
+      <c r="I234" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="J234" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="K234" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L234" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="M234" t="n" s="7">
+        <v>42944.653936539355</v>
+      </c>
+      <c r="N234"/>
+      <c r="O234" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P234" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="6">
+        <v>664</v>
+      </c>
+      <c r="B235" t="s" s="6">
+        <v>665</v>
+      </c>
+      <c r="C235" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D235"/>
+      <c r="E235" t="s" s="6">
+        <v>666</v>
+      </c>
+      <c r="F235" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G235" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H235"/>
+      <c r="I235" t="s" s="6">
+        <v>169</v>
+      </c>
+      <c r="J235" t="s" s="6">
+        <v>170</v>
+      </c>
+      <c r="K235" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L235" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="M235" t="n" s="7">
+        <v>42944.381449733795</v>
+      </c>
+      <c r="N235" t="n" s="7">
+        <v>42946.60114680556</v>
+      </c>
+      <c r="O235" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P235" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="6">
+        <v>667</v>
+      </c>
+      <c r="B236" t="s" s="6">
+        <v>668</v>
+      </c>
+      <c r="C236" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D236"/>
+      <c r="E236" t="s" s="6">
+        <v>461</v>
+      </c>
+      <c r="F236" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G236" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H236"/>
+      <c r="I236" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="J236" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="K236" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L236" t="s" s="6">
+        <v>115</v>
+      </c>
+      <c r="M236" t="n" s="7">
+        <v>42944.699045092595</v>
+      </c>
+      <c r="N236"/>
+      <c r="O236" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P236" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="6">
+        <v>669</v>
+      </c>
+      <c r="B237" t="s" s="6">
+        <v>670</v>
+      </c>
+      <c r="C237" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D237"/>
+      <c r="E237" t="s" s="6">
+        <v>671</v>
+      </c>
+      <c r="F237" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G237" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H237"/>
+      <c r="I237" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="J237" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="K237" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="L237" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="M237" t="n" s="7">
+        <v>42944.44295894676</v>
+      </c>
+      <c r="N237" t="n" s="7">
+        <v>42945.5314634375</v>
+      </c>
+      <c r="O237" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P237" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="6">
+        <v>672</v>
+      </c>
+      <c r="B238" t="s" s="6">
+        <v>673</v>
+      </c>
+      <c r="C238" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D238"/>
+      <c r="E238" t="s" s="6">
+        <v>159</v>
+      </c>
+      <c r="F238" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G238" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H238"/>
+      <c r="I238" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="J238" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="K238" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L238" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="M238" t="n" s="7">
+        <v>42944.490030925925</v>
+      </c>
+      <c r="N238" t="n" s="7">
+        <v>42946.494134849534</v>
+      </c>
+      <c r="O238" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P238" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="6">
+        <v>674</v>
+      </c>
+      <c r="B239" t="s" s="6">
+        <v>675</v>
+      </c>
+      <c r="C239" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D239"/>
+      <c r="E239" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="F239" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G239" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H239"/>
+      <c r="I239" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="J239" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K239" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L239" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="M239" t="n" s="7">
+        <v>42944.655646458334</v>
+      </c>
+      <c r="N239"/>
+      <c r="O239" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P239" t="s" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="6">
+        <v>676</v>
+      </c>
+      <c r="B240" t="s" s="6">
+        <v>677</v>
+      </c>
+      <c r="C240" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D240"/>
+      <c r="E240" t="s" s="6">
+        <v>112</v>
+      </c>
+      <c r="F240" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G240" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="H240"/>
+      <c r="I240" t="s" s="6">
+        <v>128</v>
+      </c>
+      <c r="J240" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="K240" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L240" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="M240" t="n" s="7">
+        <v>42944.696702037036</v>
+      </c>
+      <c r="N240" t="n" s="7">
+        <v>42946.733185324076</v>
+      </c>
+      <c r="O240" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P240" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="6">
+        <v>678</v>
+      </c>
+      <c r="B241" t="s" s="6">
+        <v>679</v>
+      </c>
+      <c r="C241" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D241"/>
+      <c r="E241" t="s" s="6">
+        <v>680</v>
+      </c>
+      <c r="F241" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="G241" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="H241"/>
+      <c r="I241"/>
+      <c r="J241" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="K241" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="L241" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="M241" t="n" s="7">
+        <v>42945.453808136575</v>
+      </c>
+      <c r="N241"/>
+      <c r="O241" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="P241" t="s" s="6">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P224"/>
+  <autoFilter ref="A1:P241"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>